--- a/Data/data_sour_rot.xlsx
+++ b/Data/data_sour_rot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\adb.intra.admin.ch\Userhome$\Agroscope-01\U80793249\config\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seb\Desktop\article communauté dernière version\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DCC1680-528D-4594-87CD-86D62FE5A923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EF4E16F-B3D6-4338-A06F-851797690BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="920" windowWidth="10900" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="375">
   <si>
     <t>G11C1</t>
   </si>
@@ -349,9 +349,6 @@
   </si>
   <si>
     <t>Saccharomycetales sp</t>
-  </si>
-  <si>
-    <t>Pichia sporiculosa</t>
   </si>
   <si>
     <t>genotype</t>
@@ -967,9 +964,6 @@
     <t>Pezizales sp.</t>
   </si>
   <si>
-    <t>Pichia aff. kurdiavzevii</t>
-  </si>
-  <si>
     <t>Pichia aff. sp. 2 gen 1</t>
   </si>
   <si>
@@ -1027,27 +1021,12 @@
     <t>Pichia cf. terricola INTRON</t>
   </si>
   <si>
-    <t>Pichia cf kurdiavzevii gen1</t>
-  </si>
-  <si>
-    <t>Pichia cf kurdiavzevii gen2</t>
-  </si>
-  <si>
-    <t>Pichia cf kurdiavzevii gen3</t>
-  </si>
-  <si>
-    <t>Pichia cf kurdiavzevii gen4</t>
-  </si>
-  <si>
     <t>Pichia cf sp. 6</t>
   </si>
   <si>
     <t>Pichia kluyveri</t>
   </si>
   <si>
-    <t>Pichia kurdiavzevii</t>
-  </si>
-  <si>
     <t>Pichia sp. 1</t>
   </si>
   <si>
@@ -1172,6 +1151,27 @@
   </si>
   <si>
     <t>Eurotiales</t>
+  </si>
+  <si>
+    <t>Pichia sporocuriosa</t>
+  </si>
+  <si>
+    <t>Pichia aff. kurdriavzevii</t>
+  </si>
+  <si>
+    <t>Pichia cf kurdriavzevii gen1</t>
+  </si>
+  <si>
+    <t>Pichia cf kurdriavzevii gen2</t>
+  </si>
+  <si>
+    <t>Pichia cf kurdriavzevii gen3</t>
+  </si>
+  <si>
+    <t>Pichia cf kurdriavzevii gen4</t>
+  </si>
+  <si>
+    <t>Pichia kurdriavzevii</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1316,23 +1316,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1342,13 +1340,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2167,10 +2165,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau5" displayName="Tableau5" ref="A2:DY140" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
-  <autoFilter ref="A2:DY140" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:EN139">
-    <sortCondition ref="A1:A139"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau5" displayName="Tableau5" ref="A2:DY139" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+  <autoFilter ref="A2:DY139" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:EN138">
+    <sortCondition ref="A1:A138"/>
   </sortState>
   <tableColumns count="129">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="genotype" dataDxfId="30"/>
@@ -2570,165 +2568,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DY140"/>
+  <dimension ref="A1:DY139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.4140625" customWidth="1"/>
-    <col min="2" max="2" width="19.58203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.9140625" customWidth="1"/>
+    <col min="1" max="1" width="28.3984375" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.796875" customWidth="1"/>
+    <col min="4" max="4" width="27.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="E1" s="16" t="s">
+    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="E1" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16" t="s">
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="18"/>
+      <c r="BW1" s="18"/>
+      <c r="BX1" s="18"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="18"/>
+      <c r="CA1" s="18"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="18"/>
+      <c r="CH1" s="18"/>
+      <c r="CI1" s="18"/>
+      <c r="CJ1" s="18"/>
+      <c r="CK1" s="18"/>
+      <c r="CL1" s="18"/>
+      <c r="CM1" s="18"/>
+      <c r="CN1" s="18"/>
+      <c r="CO1" s="18"/>
+      <c r="CP1" s="18"/>
+      <c r="CQ1" s="18"/>
+      <c r="CR1" s="18"/>
+      <c r="CS1" s="18"/>
+      <c r="CT1" s="18"/>
+      <c r="CU1" s="18"/>
+      <c r="CV1" s="18"/>
+      <c r="CW1" s="18"/>
+      <c r="CX1" s="18"/>
+      <c r="CY1" s="18"/>
+      <c r="CZ1" s="18"/>
+      <c r="DA1" s="18"/>
+      <c r="DB1" s="18"/>
+      <c r="DC1" s="18"/>
+      <c r="DD1" s="18"/>
+      <c r="DE1" s="18"/>
+      <c r="DF1" s="18"/>
+      <c r="DG1" s="18"/>
+      <c r="DH1" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="16"/>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="16"/>
-      <c r="BK1" s="16"/>
-      <c r="BL1" s="16"/>
-      <c r="BM1" s="16"/>
-      <c r="BN1" s="16"/>
-      <c r="BO1" s="16"/>
-      <c r="BP1" s="16"/>
-      <c r="BQ1" s="16"/>
-      <c r="BR1" s="16"/>
-      <c r="BS1" s="16"/>
-      <c r="BT1" s="16"/>
-      <c r="BU1" s="16"/>
-      <c r="BV1" s="16"/>
-      <c r="BW1" s="16"/>
-      <c r="BX1" s="16"/>
-      <c r="BY1" s="16"/>
-      <c r="BZ1" s="16"/>
-      <c r="CA1" s="16"/>
-      <c r="CB1" s="16"/>
-      <c r="CC1" s="16"/>
-      <c r="CD1" s="16"/>
-      <c r="CE1" s="16"/>
-      <c r="CF1" s="16"/>
-      <c r="CG1" s="16"/>
-      <c r="CH1" s="16"/>
-      <c r="CI1" s="16"/>
-      <c r="CJ1" s="16"/>
-      <c r="CK1" s="16"/>
-      <c r="CL1" s="16"/>
-      <c r="CM1" s="16"/>
-      <c r="CN1" s="16"/>
-      <c r="CO1" s="16"/>
-      <c r="CP1" s="16"/>
-      <c r="CQ1" s="16"/>
-      <c r="CR1" s="16"/>
-      <c r="CS1" s="16"/>
-      <c r="CT1" s="16"/>
-      <c r="CU1" s="16"/>
-      <c r="CV1" s="16"/>
-      <c r="CW1" s="16"/>
-      <c r="CX1" s="16"/>
-      <c r="CY1" s="16"/>
-      <c r="CZ1" s="16"/>
-      <c r="DA1" s="16"/>
-      <c r="DB1" s="16"/>
-      <c r="DC1" s="16"/>
-      <c r="DD1" s="16"/>
-      <c r="DE1" s="16"/>
-      <c r="DF1" s="16"/>
-      <c r="DG1" s="16"/>
-      <c r="DH1" s="16" t="s">
+      <c r="DI1" s="18"/>
+      <c r="DJ1" s="18"/>
+      <c r="DK1" s="18"/>
+      <c r="DL1" s="18"/>
+      <c r="DM1" s="18"/>
+      <c r="DN1" s="18"/>
+      <c r="DO1" s="18"/>
+      <c r="DP1" s="18"/>
+      <c r="DQ1" s="18"/>
+      <c r="DR1" s="18"/>
+      <c r="DS1" s="18"/>
+      <c r="DT1" s="18"/>
+      <c r="DU1" s="18"/>
+      <c r="DV1" s="18"/>
+      <c r="DW1" s="18"/>
+      <c r="DX1" s="18"/>
+      <c r="DY1" s="18"/>
+    </row>
+    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
         <v>204</v>
       </c>
-      <c r="DI1" s="16"/>
-      <c r="DJ1" s="16"/>
-      <c r="DK1" s="16"/>
-      <c r="DL1" s="16"/>
-      <c r="DM1" s="16"/>
-      <c r="DN1" s="16"/>
-      <c r="DO1" s="16"/>
-      <c r="DP1" s="16"/>
-      <c r="DQ1" s="16"/>
-      <c r="DR1" s="16"/>
-      <c r="DS1" s="16"/>
-      <c r="DT1" s="16"/>
-      <c r="DU1" s="16"/>
-      <c r="DV1" s="16"/>
-      <c r="DW1" s="16"/>
-      <c r="DX1" s="16"/>
-      <c r="DY1" s="16"/>
-    </row>
-    <row r="2" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
@@ -3052,72 +3050,72 @@
         <v>106</v>
       </c>
       <c r="DH2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="DI2" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="DI2" s="7" t="s">
+      <c r="DJ2" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="DJ2" s="7" t="s">
+      <c r="DK2" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="DK2" s="7" t="s">
+      <c r="DL2" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="DL2" s="7" t="s">
+      <c r="DM2" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="DM2" s="7" t="s">
+      <c r="DN2" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="DN2" s="14" t="s">
+      <c r="DO2" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="DO2" s="14" t="s">
+      <c r="DP2" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="DP2" s="14" t="s">
+      <c r="DQ2" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="DQ2" s="14" t="s">
+      <c r="DR2" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="DR2" s="14" t="s">
+      <c r="DS2" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="DS2" s="15" t="s">
+      <c r="DT2" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="DT2" s="14" t="s">
+      <c r="DU2" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="DU2" s="14" t="s">
+      <c r="DV2" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="DV2" s="14" t="s">
+      <c r="DW2" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="DW2" s="14" t="s">
+      <c r="DX2" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="DX2" s="14" t="s">
+      <c r="DY2" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="DY2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="3" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="B3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -3236,28 +3234,21 @@
       <c r="BH3">
         <v>3</v>
       </c>
-      <c r="BJ3" s="9"/>
       <c r="BQ3">
         <v>1</v>
       </c>
-      <c r="BR3" s="9"/>
-      <c r="BS3" s="9"/>
       <c r="BX3">
         <v>2</v>
       </c>
-      <c r="CE3" s="9"/>
-      <c r="CG3" s="9">
-        <v>2</v>
-      </c>
-      <c r="CH3" s="9">
-        <v>1</v>
-      </c>
-      <c r="CW3" s="9"/>
-      <c r="DA3" s="9"/>
+      <c r="CG3">
+        <v>2</v>
+      </c>
+      <c r="CH3">
+        <v>1</v>
+      </c>
       <c r="DD3">
         <v>1</v>
       </c>
-      <c r="DG3" s="9"/>
       <c r="DQ3">
         <v>2</v>
       </c>
@@ -3265,151 +3256,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="10"/>
+    </row>
+    <row r="5" spans="1:129" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="11"/>
-      <c r="BJ4" s="9"/>
-      <c r="BR4" s="9"/>
-      <c r="BS4" s="9"/>
-      <c r="CE4" s="9"/>
-      <c r="CG4" s="9"/>
-      <c r="CH4" s="9"/>
-      <c r="CW4" s="9"/>
-      <c r="DA4" s="9"/>
-      <c r="DG4" s="9"/>
-    </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:129" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="BJ5" s="9"/>
-      <c r="BR5" s="9"/>
-      <c r="BS5" s="9"/>
-      <c r="CE5" s="9"/>
-      <c r="CG5" s="9"/>
-      <c r="CH5" s="9"/>
-      <c r="CW5" s="9"/>
-      <c r="DA5" s="9"/>
-      <c r="DG5" s="9"/>
-    </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="D6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="10"/>
+    </row>
+    <row r="7" spans="1:129" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:129" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS8" s="10"/>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="11"/>
-      <c r="BJ6" s="9"/>
-      <c r="BR6" s="9"/>
-      <c r="BS6" s="9"/>
-      <c r="CE6" s="9"/>
-      <c r="CG6" s="9"/>
-      <c r="CH6" s="9"/>
-      <c r="CW6" s="9"/>
-      <c r="DA6" s="9"/>
-      <c r="DG6" s="9"/>
-    </row>
-    <row r="7" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="AZ7">
-        <v>1</v>
-      </c>
-      <c r="BC7">
-        <v>1</v>
-      </c>
-      <c r="BJ7" s="9"/>
-      <c r="BR7" s="9"/>
-      <c r="BS7" s="9"/>
-      <c r="CE7" s="9"/>
-      <c r="CG7" s="9"/>
-      <c r="CH7" s="9"/>
-      <c r="CW7" s="9"/>
-      <c r="DA7" s="9"/>
-      <c r="DG7" s="9"/>
-    </row>
-    <row r="8" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS8" s="11"/>
-      <c r="BH8">
-        <v>1</v>
-      </c>
-      <c r="BJ8" s="9"/>
-      <c r="BR8" s="9"/>
-      <c r="BS8" s="9"/>
-      <c r="CE8" s="9"/>
-      <c r="CG8" s="9"/>
-      <c r="CH8" s="9"/>
-      <c r="CW8" s="9"/>
-      <c r="DA8" s="9"/>
-      <c r="DG8" s="9"/>
-    </row>
-    <row r="9" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -3489,80 +3435,53 @@
       <c r="BG9">
         <v>3</v>
       </c>
-      <c r="BJ9" s="9"/>
-      <c r="BR9" s="9"/>
-      <c r="BS9" s="9"/>
-      <c r="CE9" s="9"/>
-      <c r="CG9" s="9"/>
-      <c r="CH9" s="9"/>
-      <c r="CW9" s="9"/>
-      <c r="DA9" s="9"/>
       <c r="DE9">
         <v>1</v>
       </c>
-      <c r="DG9" s="9"/>
-    </row>
-    <row r="10" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    </row>
+    <row r="10" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS10" s="10"/>
+    </row>
+    <row r="11" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="AS10" s="11"/>
-      <c r="BJ10" s="9"/>
-      <c r="BR10" s="9"/>
-      <c r="BS10" s="9"/>
-      <c r="CE10" s="9"/>
-      <c r="CG10" s="9"/>
-      <c r="CH10" s="9"/>
-      <c r="CW10" s="9"/>
-      <c r="DA10" s="9"/>
-      <c r="DG10" s="9"/>
-    </row>
-    <row r="11" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="BJ11" s="9"/>
-      <c r="BR11" s="9"/>
-      <c r="BS11" s="9"/>
-      <c r="CE11" s="9"/>
-      <c r="CG11" s="9"/>
-      <c r="CH11" s="9"/>
-      <c r="CW11" s="9"/>
-      <c r="DA11" s="9"/>
-      <c r="DG11" s="9"/>
-    </row>
-    <row r="12" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS12" s="11"/>
+      <c r="AS12" s="10"/>
       <c r="AU12">
         <v>4</v>
       </c>
@@ -3578,12 +3497,10 @@
       <c r="BG12">
         <v>1</v>
       </c>
-      <c r="BJ12" s="9"/>
       <c r="BL12">
         <v>2</v>
       </c>
-      <c r="BR12" s="9"/>
-      <c r="BS12" s="9">
+      <c r="BS12">
         <v>1</v>
       </c>
       <c r="BV12">
@@ -3595,31 +3512,25 @@
       <c r="CC12">
         <v>2</v>
       </c>
-      <c r="CE12" s="9"/>
       <c r="CF12">
         <v>4</v>
       </c>
-      <c r="CG12" s="9"/>
-      <c r="CH12" s="9"/>
       <c r="CN12">
         <v>2</v>
       </c>
-      <c r="CW12" s="9"/>
-      <c r="DA12" s="9"/>
-      <c r="DG12" s="9"/>
-    </row>
-    <row r="13" spans="1:129" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="AW13">
         <v>5</v>
@@ -3630,7 +3541,7 @@
       <c r="BI13">
         <v>2</v>
       </c>
-      <c r="BJ13" s="9">
+      <c r="BJ13">
         <v>1</v>
       </c>
       <c r="BL13">
@@ -3645,11 +3556,7 @@
       <c r="BP13">
         <v>2</v>
       </c>
-      <c r="BR13" s="9"/>
-      <c r="BS13" s="9"/>
-      <c r="CE13" s="9"/>
-      <c r="CG13" s="9"/>
-      <c r="CH13" s="9">
+      <c r="CH13">
         <v>3</v>
       </c>
       <c r="CI13">
@@ -3679,14 +3586,12 @@
       <c r="CV13">
         <v>2</v>
       </c>
-      <c r="CW13" s="9">
+      <c r="CW13">
         <v>1</v>
       </c>
       <c r="CY13">
         <v>1</v>
       </c>
-      <c r="DA13" s="9"/>
-      <c r="DG13" s="9"/>
       <c r="DU13">
         <v>1</v>
       </c>
@@ -3694,142 +3599,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS14" s="10"/>
+      <c r="CJ14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS14" s="11"/>
-      <c r="BJ14" s="9"/>
-      <c r="BR14" s="9"/>
-      <c r="BS14" s="9"/>
-      <c r="CE14" s="9"/>
-      <c r="CG14" s="9"/>
-      <c r="CH14" s="9"/>
-      <c r="CJ14">
-        <v>2</v>
-      </c>
-      <c r="CW14" s="9"/>
-      <c r="DA14" s="9"/>
-      <c r="DG14" s="9"/>
-    </row>
-    <row r="15" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AW15">
+        <v>2</v>
+      </c>
+      <c r="BG15">
+        <v>1</v>
+      </c>
+      <c r="CA15">
+        <v>1</v>
+      </c>
+      <c r="CD15">
+        <v>1</v>
+      </c>
+      <c r="DR15">
+        <v>1</v>
+      </c>
+      <c r="DX15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS16" s="10"/>
+      <c r="BM16">
+        <v>2</v>
+      </c>
+      <c r="CA16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="AW15">
-        <v>2</v>
-      </c>
-      <c r="BG15">
-        <v>1</v>
-      </c>
-      <c r="BJ15" s="9"/>
-      <c r="BR15" s="9"/>
-      <c r="BS15" s="9"/>
-      <c r="CA15">
-        <v>1</v>
-      </c>
-      <c r="CD15">
-        <v>1</v>
-      </c>
-      <c r="CE15" s="9"/>
-      <c r="CG15" s="9"/>
-      <c r="CH15" s="9"/>
-      <c r="CW15" s="9"/>
-      <c r="DA15" s="9"/>
-      <c r="DG15" s="9"/>
-      <c r="DR15">
-        <v>1</v>
-      </c>
-      <c r="DX15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS16" s="11"/>
-      <c r="BJ16" s="9"/>
-      <c r="BM16">
-        <v>2</v>
-      </c>
-      <c r="BR16" s="9"/>
-      <c r="BS16" s="9"/>
-      <c r="CA16">
-        <v>1</v>
-      </c>
-      <c r="CE16" s="9"/>
-      <c r="CG16" s="9"/>
-      <c r="CH16" s="9"/>
-      <c r="CW16" s="9"/>
-      <c r="DA16" s="9"/>
-      <c r="DG16" s="9"/>
-    </row>
-    <row r="17" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="D17" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="BJ17" s="9"/>
-      <c r="BR17" s="9"/>
-      <c r="BS17" s="9"/>
-      <c r="CE17" s="9"/>
-      <c r="CG17" s="9"/>
-      <c r="CH17" s="9"/>
-      <c r="CW17" s="9"/>
-      <c r="DA17" s="9"/>
-      <c r="DG17" s="9"/>
-      <c r="DN17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -3864,7 +3733,7 @@
       <c r="AQ18">
         <v>1</v>
       </c>
-      <c r="AS18" s="11"/>
+      <c r="AS18" s="10"/>
       <c r="BB18">
         <v>1</v>
       </c>
@@ -3874,113 +3743,77 @@
       <c r="BG18">
         <v>2</v>
       </c>
-      <c r="BJ18" s="9"/>
-      <c r="BR18" s="9"/>
-      <c r="BS18" s="9"/>
-      <c r="CE18" s="9"/>
-      <c r="CG18" s="9"/>
-      <c r="CH18" s="9"/>
-      <c r="CW18" s="9"/>
-      <c r="DA18" s="9"/>
-      <c r="DG18" s="9"/>
       <c r="DK18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="10"/>
+      <c r="BF20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="AK19">
-        <v>1</v>
-      </c>
-      <c r="BJ19" s="9"/>
-      <c r="BR19" s="9"/>
-      <c r="BS19" s="9"/>
-      <c r="CE19" s="9"/>
-      <c r="CG19" s="9"/>
-      <c r="CH19" s="9"/>
-      <c r="CW19" s="9"/>
-      <c r="DA19" s="9"/>
-      <c r="DG19" s="9"/>
-    </row>
-    <row r="20" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-      <c r="AQ20">
-        <v>1</v>
-      </c>
-      <c r="AS20" s="11"/>
-      <c r="BF20">
-        <v>1</v>
-      </c>
-      <c r="BJ20" s="9"/>
-      <c r="BR20" s="9"/>
-      <c r="BS20" s="9"/>
-      <c r="CE20" s="9"/>
-      <c r="CG20" s="9"/>
-      <c r="CH20" s="9"/>
-      <c r="CW20" s="9"/>
-      <c r="DA20" s="9"/>
-      <c r="DG20" s="9"/>
-    </row>
-    <row r="21" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="D21" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="BJ21" s="9"/>
-      <c r="BR21" s="9"/>
-      <c r="BS21" s="9"/>
-      <c r="CE21" s="9"/>
-      <c r="CG21" s="9"/>
-      <c r="CH21" s="9"/>
-      <c r="CW21" s="9"/>
-      <c r="DA21" s="9"/>
-      <c r="DG21" s="9"/>
-    </row>
-    <row r="22" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>183</v>
+      <c r="D22" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="AE22">
         <v>1</v>
@@ -3991,185 +3824,122 @@
       <c r="AQ22">
         <v>2</v>
       </c>
-      <c r="AS22" s="11"/>
+      <c r="AS22" s="10"/>
       <c r="BH22">
         <v>3</v>
       </c>
-      <c r="BJ22" s="9"/>
-      <c r="BR22" s="9"/>
-      <c r="BS22" s="9"/>
-      <c r="CE22" s="9"/>
-      <c r="CG22" s="9"/>
-      <c r="CH22" s="9"/>
-      <c r="CW22" s="9"/>
-      <c r="DA22" s="9"/>
-      <c r="DG22" s="9"/>
-    </row>
-    <row r="23" spans="1:129" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS24" s="10"/>
+    </row>
+    <row r="25" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="BJ23" s="9"/>
-      <c r="BR23" s="9"/>
-      <c r="BS23" s="9"/>
-      <c r="CE23" s="9"/>
-      <c r="CG23" s="9"/>
-      <c r="CH23" s="9"/>
-      <c r="CW23" s="9"/>
-      <c r="DA23" s="9"/>
-      <c r="DG23" s="9"/>
-    </row>
-    <row r="24" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS24" s="11"/>
-      <c r="BJ24" s="9"/>
-      <c r="BR24" s="9"/>
-      <c r="BS24" s="9"/>
-      <c r="CE24" s="9"/>
-      <c r="CG24" s="9"/>
-      <c r="CH24" s="9"/>
-      <c r="CW24" s="9"/>
-      <c r="DA24" s="9"/>
-      <c r="DG24" s="9"/>
-    </row>
-    <row r="25" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="BJ25" s="9"/>
-      <c r="BR25" s="9"/>
-      <c r="BS25" s="9"/>
-      <c r="CE25" s="9"/>
-      <c r="CG25" s="9"/>
-      <c r="CH25" s="9"/>
-      <c r="CW25" s="9"/>
-      <c r="DA25" s="9"/>
-      <c r="DG25" s="9"/>
-    </row>
-    <row r="26" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="AS26" s="10"/>
+    </row>
+    <row r="27" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B27" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="D27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="DY27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="AS26" s="11"/>
-      <c r="BJ26" s="9"/>
-      <c r="BR26" s="9"/>
-      <c r="BS26" s="9"/>
-      <c r="CE26" s="9"/>
-      <c r="CG26" s="9"/>
-      <c r="CH26" s="9"/>
-      <c r="CW26" s="9"/>
-      <c r="DA26" s="9"/>
-      <c r="DG26" s="9"/>
-    </row>
-    <row r="27" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="BJ27" s="9"/>
-      <c r="BR27" s="9"/>
-      <c r="BS27" s="9"/>
-      <c r="CE27" s="9"/>
-      <c r="CG27" s="9"/>
-      <c r="CH27" s="9"/>
-      <c r="CW27" s="9"/>
-      <c r="DA27" s="9"/>
-      <c r="DG27" s="9"/>
-      <c r="DY27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="D28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="10"/>
+    </row>
+    <row r="29" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="AS28" s="11"/>
-      <c r="BJ28" s="9"/>
-      <c r="BR28" s="9"/>
-      <c r="BS28" s="9"/>
-      <c r="CE28" s="9"/>
-      <c r="CG28" s="9"/>
-      <c r="CH28" s="9"/>
-      <c r="CW28" s="9"/>
-      <c r="DA28" s="9"/>
-      <c r="DG28" s="9"/>
-    </row>
-    <row r="29" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="C29" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4183,30 +3953,22 @@
       <c r="AG29">
         <v>1</v>
       </c>
-      <c r="BJ29" s="9"/>
-      <c r="BR29" s="9"/>
-      <c r="BS29" s="9">
-        <v>1</v>
-      </c>
-      <c r="CE29" s="9"/>
-      <c r="CG29" s="9"/>
-      <c r="CH29" s="9"/>
-      <c r="CW29" s="9"/>
-      <c r="DA29" s="9"/>
-      <c r="DG29" s="9"/>
-    </row>
-    <row r="30" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>368</v>
+      <c r="BS29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>361</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -4226,19 +3988,10 @@
       <c r="AQ30">
         <v>1</v>
       </c>
-      <c r="AS30" s="11"/>
+      <c r="AS30" s="10"/>
       <c r="BA30">
         <v>1</v>
       </c>
-      <c r="BJ30" s="9"/>
-      <c r="BR30" s="9"/>
-      <c r="BS30" s="9"/>
-      <c r="CE30" s="9"/>
-      <c r="CG30" s="9"/>
-      <c r="CH30" s="9"/>
-      <c r="CW30" s="9"/>
-      <c r="DA30" s="9"/>
-      <c r="DG30" s="9"/>
       <c r="DJ30">
         <v>3</v>
       </c>
@@ -4255,205 +4008,142 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="BJ31" s="9"/>
-      <c r="BR31" s="9"/>
-      <c r="BS31" s="9"/>
-      <c r="BV31">
-        <v>1</v>
-      </c>
-      <c r="CE31" s="9"/>
-      <c r="CG31" s="9"/>
-      <c r="CH31" s="9"/>
-      <c r="CW31" s="9"/>
-      <c r="DA31" s="9"/>
-      <c r="DG31" s="9"/>
-    </row>
-    <row r="32" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="10"/>
+    </row>
+    <row r="33" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="AS32" s="11"/>
-      <c r="BJ32" s="9"/>
-      <c r="BR32" s="9"/>
-      <c r="BS32" s="9"/>
-      <c r="CE32" s="9"/>
-      <c r="CG32" s="9"/>
-      <c r="CH32" s="9"/>
-      <c r="CW32" s="9"/>
-      <c r="DA32" s="9"/>
-      <c r="DG32" s="9"/>
-    </row>
-    <row r="33" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="BJ33" s="9"/>
-      <c r="BR33" s="9"/>
-      <c r="BS33" s="9"/>
-      <c r="CE33" s="9"/>
-      <c r="CG33" s="9"/>
-      <c r="CH33" s="9"/>
-      <c r="CW33" s="9"/>
-      <c r="DA33" s="9"/>
-      <c r="DG33" s="9"/>
-    </row>
-    <row r="34" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="B34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS34" s="10"/>
+      <c r="CO34">
+        <v>1</v>
+      </c>
+      <c r="CP34">
+        <v>1</v>
+      </c>
+      <c r="DB34">
+        <v>2</v>
+      </c>
+      <c r="DE34">
+        <v>1</v>
+      </c>
+      <c r="DU34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS34" s="11"/>
-      <c r="BJ34" s="9"/>
-      <c r="BR34" s="9"/>
-      <c r="BS34" s="9"/>
-      <c r="CE34" s="9"/>
-      <c r="CG34" s="9"/>
-      <c r="CH34" s="9"/>
-      <c r="CO34">
-        <v>1</v>
-      </c>
-      <c r="CP34">
-        <v>1</v>
-      </c>
-      <c r="CW34" s="9"/>
-      <c r="DA34" s="9"/>
-      <c r="DB34">
-        <v>2</v>
-      </c>
-      <c r="DE34">
-        <v>1</v>
-      </c>
-      <c r="DG34" s="9"/>
-      <c r="DU34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="B35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="DB35">
+        <v>1</v>
+      </c>
+      <c r="DC35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="BJ35" s="9"/>
-      <c r="BR35" s="9"/>
-      <c r="BS35" s="9"/>
-      <c r="CE35" s="9"/>
-      <c r="CG35" s="9"/>
-      <c r="CH35" s="9"/>
-      <c r="CW35" s="9"/>
-      <c r="DA35" s="9"/>
-      <c r="DB35">
-        <v>1</v>
-      </c>
-      <c r="DC35">
-        <v>1</v>
-      </c>
-      <c r="DG35" s="9"/>
-    </row>
-    <row r="36" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="B36" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="AS36" s="10"/>
+      <c r="DY36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="AS36" s="11"/>
-      <c r="BJ36" s="9"/>
-      <c r="BR36" s="9"/>
-      <c r="BS36" s="9"/>
-      <c r="CE36" s="9"/>
-      <c r="CG36" s="9"/>
-      <c r="CH36" s="9"/>
-      <c r="CW36" s="9"/>
-      <c r="DA36" s="9"/>
-      <c r="DG36" s="9"/>
-      <c r="DY36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="B37" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="BJ37" s="9"/>
-      <c r="BR37" s="9"/>
-      <c r="BS37" s="9"/>
-      <c r="CE37" s="9"/>
-      <c r="CG37" s="9"/>
-      <c r="CH37" s="9"/>
-      <c r="CW37" s="9"/>
-      <c r="DA37" s="9"/>
-      <c r="DG37" s="9"/>
+        <v>173</v>
+      </c>
       <c r="DL37">
         <v>5</v>
       </c>
@@ -4464,75 +4154,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS38" s="10"/>
+      <c r="CJ38">
+        <v>1</v>
+      </c>
+      <c r="DC38">
+        <v>1</v>
+      </c>
+      <c r="DQ38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS38" s="11"/>
-      <c r="BJ38" s="9"/>
-      <c r="BR38" s="9"/>
-      <c r="BS38" s="9"/>
-      <c r="CE38" s="9"/>
-      <c r="CG38" s="9"/>
-      <c r="CH38" s="9"/>
-      <c r="CJ38">
-        <v>1</v>
-      </c>
-      <c r="CW38" s="9"/>
-      <c r="DA38" s="9"/>
-      <c r="DC38">
-        <v>1</v>
-      </c>
-      <c r="DG38" s="9"/>
-      <c r="DQ38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="B39" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="BJ39" s="9"/>
+        <v>173</v>
+      </c>
       <c r="BM39">
         <v>2</v>
       </c>
-      <c r="BR39" s="9"/>
-      <c r="BS39" s="9"/>
-      <c r="CE39" s="9">
-        <v>1</v>
-      </c>
-      <c r="CG39" s="9"/>
-      <c r="CH39" s="9"/>
+      <c r="CE39">
+        <v>1</v>
+      </c>
       <c r="CT39">
         <v>2</v>
       </c>
-      <c r="CW39" s="9"/>
       <c r="CY39">
         <v>1</v>
       </c>
-      <c r="DA39" s="9"/>
       <c r="DE39">
         <v>2</v>
       </c>
-      <c r="DG39" s="9"/>
       <c r="DI39">
         <v>6</v>
       </c>
@@ -4546,45 +4219,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS40" s="10"/>
+      <c r="DO40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS40" s="11"/>
-      <c r="BJ40" s="9"/>
-      <c r="BR40" s="9"/>
-      <c r="BS40" s="9"/>
-      <c r="CE40" s="9"/>
-      <c r="CG40" s="9"/>
-      <c r="CH40" s="9"/>
-      <c r="CW40" s="9"/>
-      <c r="DA40" s="9"/>
-      <c r="DG40" s="9"/>
-      <c r="DO40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="B41" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>370</v>
+        <v>134</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>363</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -4625,7 +4289,7 @@
       <c r="BD41">
         <v>1</v>
       </c>
-      <c r="BJ41" s="9">
+      <c r="BJ41">
         <v>1</v>
       </c>
       <c r="BK41">
@@ -4643,8 +4307,6 @@
       <c r="BP41">
         <v>4</v>
       </c>
-      <c r="BR41" s="9"/>
-      <c r="BS41" s="9"/>
       <c r="BT41">
         <v>1</v>
       </c>
@@ -4654,24 +4316,18 @@
       <c r="BV41">
         <v>1</v>
       </c>
-      <c r="CE41" s="9"/>
       <c r="CF41">
         <v>1</v>
       </c>
-      <c r="CG41" s="9"/>
-      <c r="CH41" s="9"/>
       <c r="CI41">
         <v>1</v>
       </c>
-      <c r="CW41" s="9"/>
       <c r="CX41">
         <v>1</v>
       </c>
       <c r="CY41">
         <v>1</v>
       </c>
-      <c r="DA41" s="9"/>
-      <c r="DG41" s="9"/>
       <c r="DM41">
         <v>4</v>
       </c>
@@ -4697,339 +4353,260 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS42" s="10"/>
+      <c r="BM42">
+        <v>1</v>
+      </c>
+      <c r="BP42">
+        <v>1</v>
+      </c>
+      <c r="CZ42">
+        <v>1</v>
+      </c>
+      <c r="DC42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS42" s="11"/>
-      <c r="BJ42" s="9"/>
-      <c r="BM42">
-        <v>1</v>
-      </c>
-      <c r="BP42">
-        <v>1</v>
-      </c>
-      <c r="BR42" s="9"/>
-      <c r="BS42" s="9"/>
-      <c r="CE42" s="9"/>
-      <c r="CG42" s="9"/>
-      <c r="CH42" s="9"/>
-      <c r="CW42" s="9"/>
-      <c r="CZ42">
-        <v>1</v>
-      </c>
-      <c r="DA42" s="9"/>
-      <c r="DC42">
-        <v>1</v>
-      </c>
-      <c r="DG42" s="9"/>
-    </row>
-    <row r="43" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="B43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AT43">
+        <v>1</v>
+      </c>
+      <c r="BA43">
+        <v>1</v>
+      </c>
+      <c r="BR43">
+        <v>1</v>
+      </c>
+      <c r="BU43">
+        <v>1</v>
+      </c>
+      <c r="DS43">
+        <v>1</v>
+      </c>
+      <c r="DU43">
+        <v>1</v>
+      </c>
+      <c r="DY43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AT43">
-        <v>1</v>
-      </c>
-      <c r="BA43">
-        <v>1</v>
-      </c>
-      <c r="BJ43" s="9"/>
-      <c r="BR43" s="9">
-        <v>1</v>
-      </c>
-      <c r="BS43" s="9"/>
-      <c r="BU43">
-        <v>1</v>
-      </c>
-      <c r="CE43" s="9"/>
-      <c r="CG43" s="9"/>
-      <c r="CH43" s="9"/>
-      <c r="CW43" s="9"/>
-      <c r="DA43" s="9"/>
-      <c r="DG43" s="9"/>
-      <c r="DS43">
-        <v>1</v>
-      </c>
-      <c r="DU43">
-        <v>1</v>
-      </c>
-      <c r="DY43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="B44" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS44" s="10"/>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+      <c r="BO44">
+        <v>1</v>
+      </c>
+      <c r="DU44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS44" s="11"/>
-      <c r="BB44">
-        <v>1</v>
-      </c>
-      <c r="BJ44" s="9"/>
-      <c r="BO44">
-        <v>1</v>
-      </c>
-      <c r="BR44" s="9"/>
-      <c r="BS44" s="9"/>
-      <c r="CE44" s="9"/>
-      <c r="CG44" s="9"/>
-      <c r="CH44" s="9"/>
-      <c r="CW44" s="9"/>
-      <c r="DA44" s="9"/>
-      <c r="DG44" s="9"/>
-      <c r="DU44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="B45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU45">
+        <v>1</v>
+      </c>
+      <c r="AV45">
+        <v>1</v>
+      </c>
+      <c r="AZ45">
+        <v>1</v>
+      </c>
+      <c r="BC45">
+        <v>1</v>
+      </c>
+      <c r="CI45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AU45">
-        <v>1</v>
-      </c>
-      <c r="AV45">
-        <v>1</v>
-      </c>
-      <c r="AZ45">
-        <v>1</v>
-      </c>
-      <c r="BC45">
-        <v>1</v>
-      </c>
-      <c r="BJ45" s="9"/>
-      <c r="BR45" s="9"/>
-      <c r="BS45" s="9"/>
-      <c r="CE45" s="9"/>
-      <c r="CG45" s="9"/>
-      <c r="CH45" s="9"/>
-      <c r="CI45">
-        <v>1</v>
-      </c>
-      <c r="CW45" s="9"/>
-      <c r="DA45" s="9"/>
-      <c r="DG45" s="9"/>
-    </row>
-    <row r="46" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="B46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="AS46" s="10"/>
+      <c r="AW46">
+        <v>1</v>
+      </c>
+      <c r="DA46">
+        <v>1</v>
+      </c>
+      <c r="DP46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>2</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="AS46" s="11"/>
-      <c r="AW46">
-        <v>1</v>
-      </c>
-      <c r="BJ46" s="9"/>
-      <c r="BR46" s="9"/>
-      <c r="BS46" s="9"/>
-      <c r="CE46" s="9"/>
-      <c r="CG46" s="9"/>
-      <c r="CH46" s="9"/>
-      <c r="CW46" s="9"/>
-      <c r="DA46" s="9">
-        <v>1</v>
-      </c>
-      <c r="DG46" s="9"/>
-      <c r="DP46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+      <c r="B47" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="CF47">
+        <v>2</v>
+      </c>
+      <c r="CI47">
+        <v>1</v>
+      </c>
+      <c r="CK47">
+        <v>1</v>
+      </c>
+      <c r="CM47">
+        <v>2</v>
+      </c>
+      <c r="CU47">
+        <v>1</v>
+      </c>
+      <c r="DQ47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="BJ47" s="9"/>
-      <c r="BR47" s="9"/>
-      <c r="BS47" s="9"/>
-      <c r="CE47" s="9"/>
-      <c r="CF47">
-        <v>2</v>
-      </c>
-      <c r="CG47" s="9"/>
-      <c r="CH47" s="9"/>
-      <c r="CI47">
-        <v>1</v>
-      </c>
-      <c r="CK47">
-        <v>1</v>
-      </c>
-      <c r="CM47">
-        <v>2</v>
-      </c>
-      <c r="CU47">
-        <v>1</v>
-      </c>
-      <c r="CW47" s="9"/>
-      <c r="DA47" s="9"/>
-      <c r="DG47" s="9"/>
-      <c r="DQ47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="B48" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS48" s="10"/>
+      <c r="DD48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS48" s="11"/>
-      <c r="BJ48" s="9"/>
-      <c r="BR48" s="9"/>
-      <c r="BS48" s="9"/>
-      <c r="CE48" s="9"/>
-      <c r="CG48" s="9"/>
-      <c r="CH48" s="9"/>
-      <c r="CW48" s="9"/>
-      <c r="DA48" s="9"/>
-      <c r="DD48">
-        <v>1</v>
-      </c>
-      <c r="DG48" s="9"/>
-    </row>
-    <row r="49" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+      <c r="B49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="CI49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="BJ49" s="9"/>
-      <c r="BR49" s="9"/>
-      <c r="BS49" s="9"/>
-      <c r="CE49" s="9"/>
-      <c r="CG49" s="9"/>
-      <c r="CH49" s="9"/>
-      <c r="CI49">
-        <v>1</v>
-      </c>
-      <c r="CW49" s="9"/>
-      <c r="DA49" s="9"/>
-      <c r="DG49" s="9"/>
-    </row>
-    <row r="50" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+      <c r="B50" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="AS50" s="10"/>
+    </row>
+    <row r="51" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="AS50" s="11"/>
-      <c r="BJ50" s="9"/>
-      <c r="BR50" s="9"/>
-      <c r="BS50" s="9"/>
-      <c r="CE50" s="9"/>
-      <c r="CG50" s="9"/>
-      <c r="CH50" s="9"/>
-      <c r="CW50" s="9"/>
-      <c r="DA50" s="9"/>
-      <c r="DG50" s="9"/>
-    </row>
-    <row r="51" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>271</v>
-      </c>
       <c r="B51" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>370</v>
+        <v>134</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>363</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -5049,45 +4626,37 @@
       <c r="BH51">
         <v>2</v>
       </c>
-      <c r="BJ51" s="9"/>
       <c r="BQ51">
         <v>1</v>
       </c>
-      <c r="BR51" s="9"/>
-      <c r="BS51" s="9"/>
       <c r="BV51">
         <v>3</v>
       </c>
       <c r="CB51">
         <v>1</v>
       </c>
-      <c r="CE51" s="9">
+      <c r="CE51">
         <v>1</v>
       </c>
       <c r="CF51">
         <v>1</v>
       </c>
-      <c r="CG51" s="9"/>
-      <c r="CH51" s="9"/>
-      <c r="CW51" s="9"/>
       <c r="CY51">
         <v>1</v>
       </c>
-      <c r="DA51" s="9"/>
-      <c r="DG51" s="9"/>
-    </row>
-    <row r="52" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>174</v>
+    </row>
+    <row r="52" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5122,7 +4691,7 @@
       <c r="AO52">
         <v>2</v>
       </c>
-      <c r="AS52" s="11"/>
+      <c r="AS52" s="10"/>
       <c r="BB52">
         <v>1</v>
       </c>
@@ -5135,7 +4704,7 @@
       <c r="BG52">
         <v>1</v>
       </c>
-      <c r="BJ52" s="9">
+      <c r="BJ52">
         <v>2</v>
       </c>
       <c r="BK52">
@@ -5150,30 +4719,28 @@
       <c r="BQ52">
         <v>1</v>
       </c>
-      <c r="BR52" s="9">
-        <v>1</v>
-      </c>
-      <c r="BS52" s="9">
+      <c r="BR52">
+        <v>1</v>
+      </c>
+      <c r="BS52">
         <v>1</v>
       </c>
       <c r="CB52">
         <v>1</v>
       </c>
-      <c r="CE52" s="9"/>
       <c r="CF52">
         <v>2</v>
       </c>
-      <c r="CG52" s="9">
-        <v>1</v>
-      </c>
-      <c r="CH52" s="9"/>
-      <c r="CW52" s="9">
+      <c r="CG52">
+        <v>1</v>
+      </c>
+      <c r="CW52">
         <v>1</v>
       </c>
       <c r="CZ52">
         <v>1</v>
       </c>
-      <c r="DA52" s="9">
+      <c r="DA52">
         <v>2</v>
       </c>
       <c r="DB52">
@@ -5182,7 +4749,7 @@
       <c r="DC52">
         <v>1</v>
       </c>
-      <c r="DG52" s="9">
+      <c r="DG52">
         <v>1</v>
       </c>
       <c r="DH52">
@@ -5210,65 +4777,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
+      </c>
+      <c r="AT53">
+        <v>1</v>
+      </c>
+      <c r="AY53">
+        <v>1</v>
+      </c>
+      <c r="BK53">
+        <v>1</v>
+      </c>
+      <c r="CI53">
+        <v>1</v>
+      </c>
+      <c r="DI53">
+        <v>1</v>
+      </c>
+      <c r="DV53">
+        <v>1</v>
+      </c>
+      <c r="DY53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI53">
-        <v>1</v>
-      </c>
-      <c r="AT53">
-        <v>1</v>
-      </c>
-      <c r="AY53">
-        <v>1</v>
-      </c>
-      <c r="BJ53" s="9"/>
-      <c r="BK53">
-        <v>1</v>
-      </c>
-      <c r="BR53" s="9"/>
-      <c r="BS53" s="9"/>
-      <c r="CE53" s="9"/>
-      <c r="CG53" s="9"/>
-      <c r="CH53" s="9"/>
-      <c r="CI53">
-        <v>1</v>
-      </c>
-      <c r="CW53" s="9"/>
-      <c r="DA53" s="9"/>
-      <c r="DG53" s="9"/>
-      <c r="DI53">
-        <v>1</v>
-      </c>
-      <c r="DV53">
-        <v>1</v>
-      </c>
-      <c r="DY53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>174</v>
+      <c r="B54" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5285,16 +4843,13 @@
       <c r="AB54">
         <v>1</v>
       </c>
-      <c r="AS54" s="11"/>
+      <c r="AS54" s="10"/>
       <c r="AY54">
         <v>1</v>
       </c>
       <c r="BF54">
         <v>1</v>
       </c>
-      <c r="BJ54" s="9"/>
-      <c r="BR54" s="9"/>
-      <c r="BS54" s="9"/>
       <c r="BX54">
         <v>1</v>
       </c>
@@ -5310,9 +4865,6 @@
       <c r="CC54">
         <v>1</v>
       </c>
-      <c r="CE54" s="9"/>
-      <c r="CG54" s="9"/>
-      <c r="CH54" s="9"/>
       <c r="CJ54">
         <v>3</v>
       </c>
@@ -5331,11 +4883,9 @@
       <c r="CU54">
         <v>1</v>
       </c>
-      <c r="CW54" s="9"/>
       <c r="CY54">
         <v>1</v>
       </c>
-      <c r="DA54" s="9"/>
       <c r="DB54">
         <v>1</v>
       </c>
@@ -5345,102 +4895,84 @@
       <c r="DF54">
         <v>1</v>
       </c>
-      <c r="DG54" s="9"/>
       <c r="DU54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="CG55">
+        <v>2</v>
+      </c>
+      <c r="CI55">
+        <v>1</v>
+      </c>
+      <c r="CK55">
+        <v>1</v>
+      </c>
+      <c r="CT55">
+        <v>1</v>
+      </c>
+      <c r="DM55">
+        <v>1</v>
+      </c>
+      <c r="DP55">
+        <v>1</v>
+      </c>
+      <c r="DQ55">
+        <v>1</v>
+      </c>
+      <c r="DY55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="T55">
-        <v>1</v>
-      </c>
-      <c r="BJ55" s="9"/>
-      <c r="BR55" s="9"/>
-      <c r="BS55" s="9"/>
-      <c r="CE55" s="9"/>
-      <c r="CG55" s="9">
-        <v>2</v>
-      </c>
-      <c r="CH55" s="9"/>
-      <c r="CI55">
-        <v>1</v>
-      </c>
-      <c r="CK55">
-        <v>1</v>
-      </c>
-      <c r="CT55">
-        <v>1</v>
-      </c>
-      <c r="CW55" s="9"/>
-      <c r="DA55" s="9"/>
-      <c r="DG55" s="9"/>
-      <c r="DM55">
-        <v>1</v>
-      </c>
-      <c r="DP55">
-        <v>1</v>
-      </c>
-      <c r="DQ55">
-        <v>1</v>
-      </c>
-      <c r="DY55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="B56" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS56" s="10"/>
+      <c r="DY56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS56" s="11"/>
-      <c r="BJ56" s="9"/>
-      <c r="BR56" s="9"/>
-      <c r="BS56" s="9"/>
-      <c r="CE56" s="9"/>
-      <c r="CG56" s="9"/>
-      <c r="CH56" s="9"/>
-      <c r="CW56" s="9"/>
-      <c r="DA56" s="9"/>
-      <c r="DG56" s="9"/>
-      <c r="DY56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>277</v>
-      </c>
       <c r="B57" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>370</v>
+        <v>134</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>363</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -5478,7 +5010,6 @@
       <c r="BI57">
         <v>1</v>
       </c>
-      <c r="BJ57" s="9"/>
       <c r="BK57">
         <v>1</v>
       </c>
@@ -5491,8 +5022,6 @@
       <c r="BP57">
         <v>1</v>
       </c>
-      <c r="BR57" s="9"/>
-      <c r="BS57" s="9"/>
       <c r="BW57">
         <v>1</v>
       </c>
@@ -5505,11 +5034,10 @@
       <c r="CD57">
         <v>3</v>
       </c>
-      <c r="CE57" s="9"/>
-      <c r="CG57" s="9">
+      <c r="CG57">
         <v>5</v>
       </c>
-      <c r="CH57" s="9">
+      <c r="CH57">
         <v>2</v>
       </c>
       <c r="CO57">
@@ -5533,14 +5061,13 @@
       <c r="CV57">
         <v>1</v>
       </c>
-      <c r="CW57" s="9"/>
-      <c r="DA57" s="9">
+      <c r="DA57">
         <v>1</v>
       </c>
       <c r="DD57">
         <v>3</v>
       </c>
-      <c r="DG57" s="9">
+      <c r="DG57">
         <v>1</v>
       </c>
       <c r="DI57">
@@ -5577,308 +5104,223 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS58" s="10"/>
+    </row>
+    <row r="59" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS58" s="11"/>
-      <c r="BJ58" s="9"/>
-      <c r="BR58" s="9"/>
-      <c r="BS58" s="9"/>
-      <c r="CE58" s="9"/>
-      <c r="CG58" s="9"/>
-      <c r="CH58" s="9"/>
-      <c r="CW58" s="9"/>
-      <c r="DA58" s="9"/>
-      <c r="DG58" s="9"/>
-    </row>
-    <row r="59" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+      <c r="C59" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="BC59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-      <c r="BC59">
-        <v>2</v>
-      </c>
-      <c r="BJ59" s="9"/>
-      <c r="BR59" s="9"/>
-      <c r="BS59" s="9"/>
-      <c r="CE59" s="9"/>
-      <c r="CG59" s="9"/>
-      <c r="CH59" s="9"/>
-      <c r="CW59" s="9"/>
-      <c r="DA59" s="9"/>
-      <c r="DG59" s="9"/>
-    </row>
-    <row r="60" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+      <c r="D60" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS60" s="10"/>
+      <c r="DK60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AS60" s="11"/>
-      <c r="BJ60" s="9"/>
-      <c r="BR60" s="9"/>
-      <c r="BS60" s="9"/>
-      <c r="CE60" s="9"/>
-      <c r="CG60" s="9"/>
-      <c r="CH60" s="9"/>
-      <c r="CW60" s="9"/>
-      <c r="DA60" s="9"/>
-      <c r="DG60" s="9"/>
-      <c r="DK60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+      <c r="C61" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B62" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="BJ61" s="9"/>
-      <c r="BR61" s="9"/>
-      <c r="BS61" s="9"/>
-      <c r="CE61" s="9"/>
-      <c r="CG61" s="9"/>
-      <c r="CH61" s="9"/>
-      <c r="CW61" s="9"/>
-      <c r="DA61" s="9"/>
-      <c r="DG61" s="9"/>
-    </row>
-    <row r="62" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+      <c r="D62" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="AS62" s="10"/>
+      <c r="CW62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B63" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="AS62" s="11"/>
-      <c r="BJ62" s="9"/>
-      <c r="BR62" s="9"/>
-      <c r="BS62" s="9"/>
-      <c r="CE62" s="9"/>
-      <c r="CG62" s="9"/>
-      <c r="CH62" s="9"/>
-      <c r="CW62" s="9">
-        <v>1</v>
-      </c>
-      <c r="DA62" s="9"/>
-      <c r="DG62" s="9"/>
-    </row>
-    <row r="63" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
+      <c r="D63" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="CG63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B64" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="R63">
-        <v>1</v>
-      </c>
-      <c r="BJ63" s="9"/>
-      <c r="BR63" s="9"/>
-      <c r="BS63" s="9"/>
-      <c r="CE63" s="9"/>
-      <c r="CG63" s="9">
-        <v>2</v>
-      </c>
-      <c r="CH63" s="9"/>
-      <c r="CW63" s="9"/>
-      <c r="DA63" s="9"/>
-      <c r="DG63" s="9"/>
-    </row>
-    <row r="64" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
+      <c r="D64" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS64" s="10"/>
+      <c r="CG64">
+        <v>1</v>
+      </c>
+      <c r="CH64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B65" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS64" s="11"/>
-      <c r="BJ64" s="9"/>
-      <c r="BR64" s="9"/>
-      <c r="BS64" s="9"/>
-      <c r="CE64" s="9"/>
-      <c r="CG64" s="9">
-        <v>1</v>
-      </c>
-      <c r="CH64" s="9">
-        <v>1</v>
-      </c>
-      <c r="CW64" s="9"/>
-      <c r="DA64" s="9"/>
-      <c r="DG64" s="9"/>
-    </row>
-    <row r="65" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+      <c r="D65" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="AU65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B66" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="AU65">
-        <v>1</v>
-      </c>
-      <c r="BJ65" s="9"/>
-      <c r="BR65" s="9"/>
-      <c r="BS65" s="9"/>
-      <c r="CE65" s="9"/>
-      <c r="CG65" s="9"/>
-      <c r="CH65" s="9"/>
-      <c r="CW65" s="9"/>
-      <c r="DA65" s="9"/>
-      <c r="DG65" s="9"/>
-    </row>
-    <row r="66" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+      <c r="D66" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="AS66" s="10"/>
+      <c r="CW66">
+        <v>1</v>
+      </c>
+      <c r="DD66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B67" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>1</v>
-      </c>
-      <c r="W66">
-        <v>1</v>
-      </c>
-      <c r="AS66" s="11"/>
-      <c r="BJ66" s="9"/>
-      <c r="BR66" s="9"/>
-      <c r="BS66" s="9"/>
-      <c r="CE66" s="9"/>
-      <c r="CG66" s="9"/>
-      <c r="CH66" s="9"/>
-      <c r="CW66" s="9">
-        <v>1</v>
-      </c>
-      <c r="DA66" s="9"/>
-      <c r="DD66">
-        <v>1</v>
-      </c>
-      <c r="DG66" s="9"/>
-    </row>
-    <row r="67" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
+      <c r="D67" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B68" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB67">
-        <v>2</v>
-      </c>
-      <c r="BJ67" s="9"/>
-      <c r="BR67" s="9"/>
-      <c r="BS67" s="9"/>
-      <c r="CE67" s="9"/>
-      <c r="CG67" s="9"/>
-      <c r="CH67" s="9"/>
-      <c r="CW67" s="9"/>
-      <c r="DA67" s="9"/>
-      <c r="DG67" s="9"/>
-    </row>
-    <row r="68" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>373</v>
+      <c r="D68" s="9" t="s">
+        <v>366</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -5898,165 +5340,112 @@
       <c r="S68">
         <v>2</v>
       </c>
-      <c r="AS68" s="11"/>
-      <c r="BJ68" s="9"/>
-      <c r="BR68" s="9"/>
-      <c r="BS68" s="9"/>
-      <c r="CE68" s="9"/>
-      <c r="CG68" s="9">
-        <v>1</v>
-      </c>
-      <c r="CH68" s="9"/>
-      <c r="CW68" s="9"/>
-      <c r="DA68" s="9"/>
-      <c r="DG68" s="9"/>
-    </row>
-    <row r="69" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="AS68" s="10"/>
+      <c r="CG68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+      <c r="DF69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B70" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="D70" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AS70" s="10"/>
+    </row>
+    <row r="71" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="CT71">
+        <v>1</v>
+      </c>
+      <c r="CY71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AS72" s="10"/>
+      <c r="DB72">
+        <v>1</v>
+      </c>
+      <c r="DD72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="X69">
-        <v>1</v>
-      </c>
-      <c r="BJ69" s="9"/>
-      <c r="BR69" s="9"/>
-      <c r="BS69" s="9"/>
-      <c r="CE69" s="9"/>
-      <c r="CG69" s="9"/>
-      <c r="CH69" s="9"/>
-      <c r="CW69" s="9"/>
-      <c r="DA69" s="9"/>
-      <c r="DF69">
-        <v>2</v>
-      </c>
-      <c r="DG69" s="9"/>
-    </row>
-    <row r="70" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AO70">
-        <v>1</v>
-      </c>
-      <c r="AS70" s="11"/>
-      <c r="BJ70" s="9"/>
-      <c r="BR70" s="9"/>
-      <c r="BS70" s="9"/>
-      <c r="CE70" s="9"/>
-      <c r="CG70" s="9"/>
-      <c r="CH70" s="9"/>
-      <c r="CW70" s="9"/>
-      <c r="DA70" s="9"/>
-      <c r="DG70" s="9"/>
-    </row>
-    <row r="71" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ71" s="9"/>
-      <c r="BR71" s="9"/>
-      <c r="BS71" s="9"/>
-      <c r="CE71" s="9"/>
-      <c r="CG71" s="9"/>
-      <c r="CH71" s="9"/>
-      <c r="CT71">
-        <v>1</v>
-      </c>
-      <c r="CW71" s="9"/>
-      <c r="CY71">
-        <v>1</v>
-      </c>
-      <c r="DA71" s="9"/>
-      <c r="DG71" s="9"/>
-    </row>
-    <row r="72" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-      <c r="AA72">
-        <v>1</v>
-      </c>
-      <c r="AS72" s="11"/>
-      <c r="BJ72" s="9"/>
-      <c r="BR72" s="9"/>
-      <c r="BS72" s="9"/>
-      <c r="CE72" s="9"/>
-      <c r="CG72" s="9"/>
-      <c r="CH72" s="9"/>
-      <c r="CW72" s="9"/>
-      <c r="DA72" s="9"/>
-      <c r="DB72">
-        <v>1</v>
-      </c>
-      <c r="DD72">
-        <v>1</v>
-      </c>
-      <c r="DG72" s="9"/>
-    </row>
-    <row r="73" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="C73" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="BJ73" s="9"/>
-      <c r="BR73" s="9"/>
-      <c r="BS73" s="9"/>
-      <c r="CE73" s="9"/>
-      <c r="CG73" s="9"/>
-      <c r="CH73" s="9"/>
       <c r="CS73">
         <v>1</v>
       </c>
-      <c r="CW73" s="9"/>
-      <c r="DA73" s="9"/>
-      <c r="DG73" s="9"/>
       <c r="DU73">
         <v>1</v>
       </c>
@@ -6064,284 +5453,195 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
+    <row r="74" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS74" s="10"/>
+      <c r="DS74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B75" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="BU75">
+        <v>1</v>
+      </c>
+      <c r="DQ75">
+        <v>1</v>
+      </c>
+      <c r="DS75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D74" s="10" t="s">
+      <c r="C76" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="AS74" s="11"/>
-      <c r="BJ74" s="9"/>
-      <c r="BR74" s="9"/>
-      <c r="BS74" s="9"/>
-      <c r="CE74" s="9"/>
-      <c r="CG74" s="9"/>
-      <c r="CH74" s="9"/>
-      <c r="CW74" s="9"/>
-      <c r="DA74" s="9"/>
-      <c r="DG74" s="9"/>
-      <c r="DS74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D75" s="8" t="s">
+      <c r="D76" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS76" s="10"/>
+    </row>
+    <row r="77" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="BJ75" s="9"/>
-      <c r="BR75" s="9"/>
-      <c r="BS75" s="9"/>
-      <c r="BU75">
-        <v>1</v>
-      </c>
-      <c r="CE75" s="9"/>
-      <c r="CG75" s="9"/>
-      <c r="CH75" s="9"/>
-      <c r="CW75" s="9"/>
-      <c r="DA75" s="9"/>
-      <c r="DG75" s="9"/>
-      <c r="DQ75">
-        <v>1</v>
-      </c>
-      <c r="DS75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS76" s="11"/>
-      <c r="BJ76" s="9"/>
-      <c r="BR76" s="9"/>
-      <c r="BS76" s="9"/>
-      <c r="CE76" s="9"/>
-      <c r="CG76" s="9"/>
-      <c r="CH76" s="9"/>
-      <c r="CW76" s="9"/>
-      <c r="DA76" s="9"/>
-      <c r="DG76" s="9"/>
-    </row>
-    <row r="77" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
+      <c r="D77" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="BJ77" s="9"/>
-      <c r="BR77" s="9"/>
-      <c r="BS77" s="9"/>
-      <c r="CE77" s="9"/>
-      <c r="CG77" s="9"/>
-      <c r="CH77" s="9"/>
-      <c r="CW77" s="9"/>
-      <c r="DA77" s="9"/>
-      <c r="DG77" s="9"/>
-    </row>
-    <row r="78" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A78" s="10" t="s">
+      <c r="C78" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AS78" s="10"/>
+    </row>
+    <row r="79" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="AS78" s="11"/>
-      <c r="BJ78" s="9"/>
-      <c r="BR78" s="9"/>
-      <c r="BS78" s="9"/>
-      <c r="CE78" s="9"/>
-      <c r="CG78" s="9"/>
-      <c r="CH78" s="9"/>
-      <c r="CW78" s="9"/>
-      <c r="DA78" s="9"/>
-      <c r="DG78" s="9"/>
-    </row>
-    <row r="79" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
+      <c r="B79" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="DI79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="BJ79" s="9"/>
-      <c r="BR79" s="9"/>
-      <c r="BS79" s="9"/>
-      <c r="CE79" s="9"/>
-      <c r="CG79" s="9"/>
-      <c r="CH79" s="9"/>
-      <c r="CW79" s="9"/>
-      <c r="DA79" s="9"/>
-      <c r="DG79" s="9"/>
-      <c r="DI79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
+      <c r="B80" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="AS80" s="10"/>
+      <c r="BX80">
+        <v>1</v>
+      </c>
+      <c r="DR80">
+        <v>1</v>
+      </c>
+      <c r="DV80">
+        <v>1</v>
+      </c>
+      <c r="DX80">
+        <v>1</v>
+      </c>
+      <c r="DY80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="AS80" s="11"/>
-      <c r="BJ80" s="9"/>
-      <c r="BR80" s="9"/>
-      <c r="BS80" s="9"/>
-      <c r="BX80">
-        <v>1</v>
-      </c>
-      <c r="CE80" s="9"/>
-      <c r="CG80" s="9"/>
-      <c r="CH80" s="9"/>
-      <c r="CW80" s="9"/>
-      <c r="DA80" s="9"/>
-      <c r="DG80" s="9"/>
-      <c r="DR80">
-        <v>1</v>
-      </c>
-      <c r="DV80">
-        <v>1</v>
-      </c>
-      <c r="DX80">
-        <v>1</v>
-      </c>
-      <c r="DY80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
+      <c r="B81" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="BJ81" s="9"/>
-      <c r="BR81" s="9"/>
-      <c r="BS81" s="9"/>
-      <c r="CE81" s="9"/>
-      <c r="CG81" s="9"/>
-      <c r="CH81" s="9"/>
-      <c r="CW81" s="9"/>
-      <c r="DA81" s="9"/>
-      <c r="DG81" s="9"/>
-    </row>
-    <row r="82" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
+      <c r="B82" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AS82" s="10"/>
+      <c r="DK82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="AS82" s="11"/>
-      <c r="BJ82" s="9"/>
-      <c r="BR82" s="9"/>
-      <c r="BS82" s="9"/>
-      <c r="CE82" s="9"/>
-      <c r="CG82" s="9"/>
-      <c r="CH82" s="9"/>
-      <c r="CW82" s="9"/>
-      <c r="DA82" s="9"/>
-      <c r="DG82" s="9"/>
-      <c r="DK82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
-        <v>303</v>
-      </c>
       <c r="B83" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="BJ83" s="9"/>
-      <c r="BR83" s="9"/>
-      <c r="BS83" s="9"/>
-      <c r="CE83" s="9"/>
-      <c r="CG83" s="9"/>
-      <c r="CH83" s="9"/>
+        <v>367</v>
+      </c>
       <c r="CQ83">
         <v>2</v>
       </c>
-      <c r="CW83" s="9"/>
-      <c r="DA83" s="9">
-        <v>1</v>
-      </c>
-      <c r="DG83" s="9"/>
+      <c r="DA83">
+        <v>1</v>
+      </c>
       <c r="DJ83">
         <v>2</v>
       </c>
@@ -6364,693 +5664,526 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
+    <row r="84" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z84">
+        <v>1</v>
+      </c>
+      <c r="AS84" s="10"/>
+    </row>
+    <row r="85" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B85" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z84">
-        <v>1</v>
-      </c>
-      <c r="AS84" s="11"/>
-      <c r="BJ84" s="9"/>
-      <c r="BR84" s="9"/>
-      <c r="BS84" s="9"/>
-      <c r="CE84" s="9"/>
-      <c r="CG84" s="9"/>
-      <c r="CH84" s="9"/>
-      <c r="CW84" s="9"/>
-      <c r="DA84" s="9"/>
-      <c r="DG84" s="9"/>
-    </row>
-    <row r="85" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
+      <c r="DT85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="AS86" s="10"/>
+      <c r="BJ86">
+        <v>1</v>
+      </c>
+      <c r="BR86">
+        <v>1</v>
+      </c>
+      <c r="BS86">
+        <v>1</v>
+      </c>
+      <c r="CE86">
+        <v>1</v>
+      </c>
+      <c r="CG86">
+        <v>1</v>
+      </c>
+      <c r="CH86">
+        <v>1</v>
+      </c>
+      <c r="DA86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="DC87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B85" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="D85" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="BJ85" s="9"/>
-      <c r="BR85" s="9"/>
-      <c r="BS85" s="9"/>
-      <c r="CE85" s="9"/>
-      <c r="CG85" s="9"/>
-      <c r="CH85" s="9"/>
-      <c r="CW85" s="9"/>
-      <c r="DA85" s="9"/>
-      <c r="DG85" s="9"/>
-      <c r="DT85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="S86">
-        <v>1</v>
-      </c>
-      <c r="AS86" s="11"/>
-      <c r="BJ86" s="9">
-        <v>1</v>
-      </c>
-      <c r="BR86" s="9">
-        <v>1</v>
-      </c>
-      <c r="BS86" s="9">
-        <v>1</v>
-      </c>
-      <c r="CE86" s="9">
-        <v>1</v>
-      </c>
-      <c r="CG86" s="9">
-        <v>1</v>
-      </c>
-      <c r="CH86" s="9">
-        <v>1</v>
-      </c>
-      <c r="CW86" s="9"/>
-      <c r="DA86" s="9">
-        <v>1</v>
-      </c>
-      <c r="DG86" s="9"/>
-    </row>
-    <row r="87" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+      <c r="C88" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS88" s="10"/>
+      <c r="CJ88">
+        <v>1</v>
+      </c>
+      <c r="CQ88">
+        <v>1</v>
+      </c>
+      <c r="CS88">
+        <v>1</v>
+      </c>
+      <c r="CV88">
+        <v>1</v>
+      </c>
+      <c r="CX88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ87" s="9"/>
-      <c r="BR87" s="9"/>
-      <c r="BS87" s="9"/>
-      <c r="CE87" s="9"/>
-      <c r="CG87" s="9"/>
-      <c r="CH87" s="9"/>
-      <c r="CW87" s="9"/>
-      <c r="DA87" s="9"/>
-      <c r="DC87">
-        <v>1</v>
-      </c>
-      <c r="DG87" s="9"/>
-    </row>
-    <row r="88" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
+      <c r="B89" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="CI89">
+        <v>1</v>
+      </c>
+      <c r="CZ89">
+        <v>1</v>
+      </c>
+      <c r="DG89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS88" s="11"/>
-      <c r="BJ88" s="9"/>
-      <c r="BR88" s="9"/>
-      <c r="BS88" s="9"/>
-      <c r="CE88" s="9"/>
-      <c r="CG88" s="9"/>
-      <c r="CH88" s="9"/>
-      <c r="CJ88">
-        <v>1</v>
-      </c>
-      <c r="CQ88">
-        <v>1</v>
-      </c>
-      <c r="CS88">
-        <v>1</v>
-      </c>
-      <c r="CV88">
-        <v>1</v>
-      </c>
-      <c r="CW88" s="9"/>
-      <c r="CX88">
-        <v>1</v>
-      </c>
-      <c r="DA88" s="9"/>
-      <c r="DG88" s="9"/>
-    </row>
-    <row r="89" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
+      <c r="B90" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS90" s="10"/>
+      <c r="CQ90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ89" s="9"/>
-      <c r="BR89" s="9"/>
-      <c r="BS89" s="9"/>
-      <c r="CE89" s="9"/>
-      <c r="CG89" s="9"/>
-      <c r="CH89" s="9"/>
-      <c r="CI89">
-        <v>1</v>
-      </c>
-      <c r="CW89" s="9"/>
-      <c r="CZ89">
-        <v>1</v>
-      </c>
-      <c r="DA89" s="9"/>
-      <c r="DG89" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A90" s="10" t="s">
+      <c r="B91" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="CT91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS90" s="11"/>
-      <c r="BJ90" s="9"/>
-      <c r="BR90" s="9"/>
-      <c r="BS90" s="9"/>
-      <c r="CE90" s="9"/>
-      <c r="CG90" s="9"/>
-      <c r="CH90" s="9"/>
-      <c r="CQ90">
-        <v>1</v>
-      </c>
-      <c r="CW90" s="9"/>
-      <c r="DA90" s="9"/>
-      <c r="DG90" s="9"/>
-    </row>
-    <row r="91" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
+      <c r="B92" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS92" s="10"/>
+      <c r="CC92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ91" s="9"/>
-      <c r="BR91" s="9"/>
-      <c r="BS91" s="9"/>
-      <c r="CE91" s="9"/>
-      <c r="CG91" s="9"/>
-      <c r="CH91" s="9"/>
-      <c r="CT91">
-        <v>1</v>
-      </c>
-      <c r="CW91" s="9"/>
-      <c r="DA91" s="9"/>
-      <c r="DG91" s="9"/>
-    </row>
-    <row r="92" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A92" s="10" t="s">
+      <c r="B93" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="BN93">
+        <v>1</v>
+      </c>
+      <c r="BQ93">
+        <v>1</v>
+      </c>
+      <c r="BZ93">
+        <v>1</v>
+      </c>
+      <c r="CG93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS92" s="11"/>
-      <c r="BJ92" s="9"/>
-      <c r="BR92" s="9"/>
-      <c r="BS92" s="9"/>
-      <c r="CC92">
-        <v>1</v>
-      </c>
-      <c r="CE92" s="9"/>
-      <c r="CG92" s="9"/>
-      <c r="CH92" s="9"/>
-      <c r="CW92" s="9"/>
-      <c r="DA92" s="9"/>
-      <c r="DG92" s="9"/>
-    </row>
-    <row r="93" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
+      <c r="B94" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS94" s="10"/>
+      <c r="CI94">
+        <v>1</v>
+      </c>
+      <c r="CJ94">
+        <v>2</v>
+      </c>
+      <c r="CL94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ93" s="9"/>
-      <c r="BN93">
-        <v>1</v>
-      </c>
-      <c r="BQ93">
-        <v>1</v>
-      </c>
-      <c r="BR93" s="9"/>
-      <c r="BS93" s="9"/>
-      <c r="BZ93">
-        <v>1</v>
-      </c>
-      <c r="CE93" s="9"/>
-      <c r="CG93" s="9">
-        <v>1</v>
-      </c>
-      <c r="CH93" s="9"/>
-      <c r="CW93" s="9"/>
-      <c r="DA93" s="9"/>
-      <c r="DG93" s="9"/>
-    </row>
-    <row r="94" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
+      <c r="B95" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="CA95">
+        <v>1</v>
+      </c>
+      <c r="CR95">
+        <v>2</v>
+      </c>
+      <c r="DU95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS94" s="11"/>
-      <c r="BJ94" s="9"/>
-      <c r="BR94" s="9"/>
-      <c r="BS94" s="9"/>
-      <c r="CE94" s="9"/>
-      <c r="CG94" s="9"/>
-      <c r="CH94" s="9"/>
-      <c r="CI94">
-        <v>1</v>
-      </c>
-      <c r="CJ94">
-        <v>2</v>
-      </c>
-      <c r="CL94">
-        <v>1</v>
-      </c>
-      <c r="CW94" s="9"/>
-      <c r="DA94" s="9"/>
-      <c r="DG94" s="9"/>
-    </row>
-    <row r="95" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
+      <c r="B96" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS96" s="10"/>
+      <c r="CW96">
+        <v>1</v>
+      </c>
+      <c r="DG96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ95" s="9"/>
-      <c r="BR95" s="9"/>
-      <c r="BS95" s="9"/>
-      <c r="CA95">
-        <v>1</v>
-      </c>
-      <c r="CE95" s="9"/>
-      <c r="CG95" s="9"/>
-      <c r="CH95" s="9"/>
-      <c r="CR95">
-        <v>2</v>
-      </c>
-      <c r="CW95" s="9"/>
-      <c r="DA95" s="9"/>
-      <c r="DG95" s="9"/>
-      <c r="DU95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
+      <c r="B97" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="BI97">
+        <v>2</v>
+      </c>
+      <c r="BP97">
+        <v>1</v>
+      </c>
+      <c r="BR97">
+        <v>1</v>
+      </c>
+      <c r="CJ97">
+        <v>1</v>
+      </c>
+      <c r="CK97">
+        <v>1</v>
+      </c>
+      <c r="CQ97">
+        <v>1</v>
+      </c>
+      <c r="CT97">
+        <v>2</v>
+      </c>
+      <c r="CU97">
+        <v>1</v>
+      </c>
+      <c r="CW97">
+        <v>1</v>
+      </c>
+      <c r="DB97">
+        <v>2</v>
+      </c>
+      <c r="DI97">
+        <v>1</v>
+      </c>
+      <c r="DL97">
+        <v>2</v>
+      </c>
+      <c r="DU97">
+        <v>1</v>
+      </c>
+      <c r="DY97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS96" s="11"/>
-      <c r="BJ96" s="9"/>
-      <c r="BR96" s="9"/>
-      <c r="BS96" s="9"/>
-      <c r="CE96" s="9"/>
-      <c r="CG96" s="9"/>
-      <c r="CH96" s="9"/>
-      <c r="CW96" s="9">
-        <v>1</v>
-      </c>
-      <c r="DA96" s="9"/>
-      <c r="DG96" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
+      <c r="B98" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS98" s="10"/>
+      <c r="CY98">
+        <v>2</v>
+      </c>
+      <c r="CZ98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="S97">
-        <v>2</v>
-      </c>
-      <c r="BI97">
-        <v>2</v>
-      </c>
-      <c r="BJ97" s="9"/>
-      <c r="BP97">
-        <v>1</v>
-      </c>
-      <c r="BR97" s="9">
-        <v>1</v>
-      </c>
-      <c r="BS97" s="9"/>
-      <c r="CE97" s="9"/>
-      <c r="CG97" s="9"/>
-      <c r="CH97" s="9"/>
-      <c r="CJ97">
-        <v>1</v>
-      </c>
-      <c r="CK97">
-        <v>1</v>
-      </c>
-      <c r="CQ97">
-        <v>1</v>
-      </c>
-      <c r="CT97">
-        <v>2</v>
-      </c>
-      <c r="CU97">
-        <v>1</v>
-      </c>
-      <c r="CW97" s="9">
-        <v>1</v>
-      </c>
-      <c r="DA97" s="9"/>
-      <c r="DB97">
-        <v>2</v>
-      </c>
-      <c r="DG97" s="9"/>
-      <c r="DI97">
-        <v>1</v>
-      </c>
-      <c r="DL97">
-        <v>2</v>
-      </c>
-      <c r="DU97">
-        <v>1</v>
-      </c>
-      <c r="DY97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A98" s="10" t="s">
+      <c r="B99" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="DN99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS98" s="11"/>
-      <c r="BJ98" s="9"/>
-      <c r="BR98" s="9"/>
-      <c r="BS98" s="9"/>
-      <c r="CE98" s="9"/>
-      <c r="CG98" s="9"/>
-      <c r="CH98" s="9"/>
-      <c r="CW98" s="9"/>
-      <c r="CY98">
-        <v>2</v>
-      </c>
-      <c r="CZ98">
-        <v>1</v>
-      </c>
-      <c r="DA98" s="9"/>
-      <c r="DG98" s="9"/>
-    </row>
-    <row r="99" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
+      <c r="B100" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS100" s="10"/>
+      <c r="BZ100">
+        <v>1</v>
+      </c>
+      <c r="DE100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ99" s="9"/>
-      <c r="BR99" s="9"/>
-      <c r="BS99" s="9"/>
-      <c r="CE99" s="9"/>
-      <c r="CG99" s="9"/>
-      <c r="CH99" s="9"/>
-      <c r="CW99" s="9"/>
-      <c r="DA99" s="9"/>
-      <c r="DG99" s="9"/>
-      <c r="DN99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A100" s="10" t="s">
+      <c r="B101" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="BQ101">
+        <v>1</v>
+      </c>
+      <c r="CE101">
+        <v>1</v>
+      </c>
+      <c r="CQ101">
+        <v>1</v>
+      </c>
+      <c r="DE101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS100" s="11"/>
-      <c r="BJ100" s="9"/>
-      <c r="BR100" s="9"/>
-      <c r="BS100" s="9"/>
-      <c r="BZ100">
-        <v>1</v>
-      </c>
-      <c r="CE100" s="9"/>
-      <c r="CG100" s="9"/>
-      <c r="CH100" s="9"/>
-      <c r="CW100" s="9"/>
-      <c r="DA100" s="9"/>
-      <c r="DE100">
-        <v>1</v>
-      </c>
-      <c r="DG100" s="9"/>
-    </row>
-    <row r="101" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
+      <c r="B102" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS102" s="10"/>
+      <c r="BP102">
+        <v>1</v>
+      </c>
+      <c r="CI102">
+        <v>1</v>
+      </c>
+      <c r="CM102">
+        <v>2</v>
+      </c>
+      <c r="CO102">
+        <v>1</v>
+      </c>
+      <c r="CV102">
+        <v>1</v>
+      </c>
+      <c r="DC102">
+        <v>1</v>
+      </c>
+      <c r="DD102">
+        <v>1</v>
+      </c>
+      <c r="DU102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ101" s="9"/>
-      <c r="BQ101">
-        <v>1</v>
-      </c>
-      <c r="BR101" s="9"/>
-      <c r="BS101" s="9"/>
-      <c r="CE101" s="9">
-        <v>1</v>
-      </c>
-      <c r="CG101" s="9"/>
-      <c r="CH101" s="9"/>
-      <c r="CQ101">
-        <v>1</v>
-      </c>
-      <c r="CW101" s="9"/>
-      <c r="DA101" s="9"/>
-      <c r="DE101">
-        <v>1</v>
-      </c>
-      <c r="DG101" s="9"/>
-    </row>
-    <row r="102" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
+      <c r="B103" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="CB103">
+        <v>1</v>
+      </c>
+      <c r="CD103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS102" s="11"/>
-      <c r="BJ102" s="9"/>
-      <c r="BP102">
-        <v>1</v>
-      </c>
-      <c r="BR102" s="9"/>
-      <c r="BS102" s="9"/>
-      <c r="CE102" s="9"/>
-      <c r="CG102" s="9"/>
-      <c r="CH102" s="9"/>
-      <c r="CI102">
-        <v>1</v>
-      </c>
-      <c r="CM102">
-        <v>2</v>
-      </c>
-      <c r="CO102">
-        <v>1</v>
-      </c>
-      <c r="CV102">
-        <v>1</v>
-      </c>
-      <c r="CW102" s="9"/>
-      <c r="DA102" s="9"/>
-      <c r="DC102">
-        <v>1</v>
-      </c>
-      <c r="DD102">
-        <v>1</v>
-      </c>
-      <c r="DG102" s="9"/>
-      <c r="DU102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ103" s="9"/>
-      <c r="BR103" s="9"/>
-      <c r="BS103" s="9"/>
-      <c r="CB103">
-        <v>1</v>
-      </c>
-      <c r="CD103">
-        <v>1</v>
-      </c>
-      <c r="CE103" s="9"/>
-      <c r="CG103" s="9"/>
-      <c r="CH103" s="9"/>
-      <c r="CW103" s="9"/>
-      <c r="DA103" s="9"/>
-      <c r="DG103" s="9"/>
-    </row>
-    <row r="104" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A104" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>373</v>
+      <c r="B104" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>366</v>
       </c>
       <c r="S104">
         <v>1</v>
       </c>
-      <c r="AS104" s="11"/>
+      <c r="AS104" s="10"/>
       <c r="BG104">
         <v>1</v>
       </c>
       <c r="BI104">
         <v>2</v>
       </c>
-      <c r="BJ104" s="9"/>
       <c r="BL104">
         <v>1</v>
       </c>
@@ -7063,14 +6196,9 @@
       <c r="BP104">
         <v>1</v>
       </c>
-      <c r="BR104" s="9"/>
-      <c r="BS104" s="9"/>
       <c r="BZ104">
         <v>1</v>
       </c>
-      <c r="CE104" s="9"/>
-      <c r="CG104" s="9"/>
-      <c r="CH104" s="9"/>
       <c r="CK104">
         <v>1</v>
       </c>
@@ -7086,9 +6214,6 @@
       <c r="CV104">
         <v>4</v>
       </c>
-      <c r="CW104" s="9"/>
-      <c r="DA104" s="9"/>
-      <c r="DG104" s="9"/>
       <c r="DR104">
         <v>1</v>
       </c>
@@ -7099,69 +6224,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ105" s="9"/>
-      <c r="BR105" s="9"/>
-      <c r="BS105" s="9">
-        <v>1</v>
-      </c>
-      <c r="CE105" s="9"/>
-      <c r="CG105" s="9"/>
-      <c r="CH105" s="9"/>
-      <c r="CW105" s="9"/>
-      <c r="DA105" s="9"/>
-      <c r="DG105" s="9"/>
-    </row>
-    <row r="106" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A106" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS106" s="11"/>
-      <c r="BJ106" s="9"/>
-      <c r="BR106" s="9"/>
-      <c r="BS106" s="9"/>
-      <c r="CE106" s="9">
-        <v>1</v>
-      </c>
-      <c r="CG106" s="9"/>
-      <c r="CH106" s="9"/>
-      <c r="CW106" s="9"/>
-      <c r="DA106" s="9"/>
-      <c r="DG106" s="9"/>
-    </row>
-    <row r="107" spans="1:129" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="BS105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS106" s="10"/>
+      <c r="CE106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -7175,18 +6284,9 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="BJ107" s="9"/>
-      <c r="BR107" s="9"/>
-      <c r="BS107" s="9"/>
-      <c r="CE107" s="9"/>
-      <c r="CG107" s="9"/>
-      <c r="CH107" s="9"/>
-      <c r="CW107" s="9"/>
-      <c r="DA107" s="9"/>
       <c r="DE107">
         <v>2</v>
       </c>
-      <c r="DG107" s="9"/>
       <c r="DI107">
         <v>1</v>
       </c>
@@ -7200,225 +6300,173 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A108" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C108" s="10" t="s">
+    <row r="108" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS108" s="10"/>
+      <c r="DI108">
+        <v>1</v>
+      </c>
+      <c r="DR108">
+        <v>1</v>
+      </c>
+      <c r="DV108">
+        <v>1</v>
+      </c>
+      <c r="DX108">
+        <v>1</v>
+      </c>
+      <c r="DY108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS110" s="10"/>
+      <c r="DN110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="CZ111">
+        <v>1</v>
+      </c>
+      <c r="DF111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>2</v>
+      </c>
+      <c r="AS112" s="10"/>
+      <c r="AY112">
+        <v>1</v>
+      </c>
+      <c r="BJ112">
+        <v>1</v>
+      </c>
+      <c r="BX112">
+        <v>1</v>
+      </c>
+      <c r="BY112">
+        <v>1</v>
+      </c>
+      <c r="BZ112">
+        <v>1</v>
+      </c>
+      <c r="CA112">
+        <v>2</v>
+      </c>
+      <c r="CB112">
+        <v>1</v>
+      </c>
+      <c r="CE112">
+        <v>2</v>
+      </c>
+      <c r="CM112">
+        <v>1</v>
+      </c>
+      <c r="DC112">
+        <v>1</v>
+      </c>
+      <c r="DM112">
+        <v>1</v>
+      </c>
+      <c r="DU112">
+        <v>1</v>
+      </c>
+      <c r="DX112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D108" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS108" s="11"/>
-      <c r="BJ108" s="9"/>
-      <c r="BR108" s="9"/>
-      <c r="BS108" s="9"/>
-      <c r="CE108" s="9"/>
-      <c r="CG108" s="9"/>
-      <c r="CH108" s="9"/>
-      <c r="CW108" s="9"/>
-      <c r="DA108" s="9"/>
-      <c r="DG108" s="9"/>
-      <c r="DI108">
-        <v>1</v>
-      </c>
-      <c r="DR108">
-        <v>1</v>
-      </c>
-      <c r="DV108">
-        <v>1</v>
-      </c>
-      <c r="DX108">
-        <v>1</v>
-      </c>
-      <c r="DY108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="J109">
-        <v>1</v>
-      </c>
-      <c r="BJ109" s="9"/>
-      <c r="BR109" s="9"/>
-      <c r="BS109" s="9"/>
-      <c r="CE109" s="9"/>
-      <c r="CG109" s="9"/>
-      <c r="CH109" s="9"/>
-      <c r="CW109" s="9"/>
-      <c r="DA109" s="9"/>
-      <c r="DG109" s="9"/>
-    </row>
-    <row r="110" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A110" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS110" s="11"/>
-      <c r="BJ110" s="9"/>
-      <c r="BR110" s="9"/>
-      <c r="BS110" s="9"/>
-      <c r="CE110" s="9"/>
-      <c r="CG110" s="9"/>
-      <c r="CH110" s="9"/>
-      <c r="CW110" s="9"/>
-      <c r="DA110" s="9"/>
-      <c r="DG110" s="9"/>
-      <c r="DN110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ111" s="9"/>
-      <c r="BR111" s="9"/>
-      <c r="BS111" s="9"/>
-      <c r="CE111" s="9"/>
-      <c r="CG111" s="9"/>
-      <c r="CH111" s="9"/>
-      <c r="CW111" s="9"/>
-      <c r="CZ111">
-        <v>1</v>
-      </c>
-      <c r="DA111" s="9"/>
-      <c r="DF111">
-        <v>1</v>
-      </c>
-      <c r="DG111" s="9"/>
-    </row>
-    <row r="112" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A112" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="O112">
-        <v>1</v>
-      </c>
-      <c r="P112">
-        <v>2</v>
-      </c>
-      <c r="AS112" s="11"/>
-      <c r="AY112">
-        <v>1</v>
-      </c>
-      <c r="BJ112" s="9">
-        <v>1</v>
-      </c>
-      <c r="BR112" s="9"/>
-      <c r="BS112" s="9"/>
-      <c r="BX112">
-        <v>1</v>
-      </c>
-      <c r="BY112">
-        <v>1</v>
-      </c>
-      <c r="BZ112">
-        <v>1</v>
-      </c>
-      <c r="CA112">
-        <v>2</v>
-      </c>
-      <c r="CB112">
-        <v>1</v>
-      </c>
-      <c r="CE112" s="9">
-        <v>2</v>
-      </c>
-      <c r="CG112" s="9"/>
-      <c r="CH112" s="9"/>
-      <c r="CM112">
-        <v>1</v>
-      </c>
-      <c r="CW112" s="9"/>
-      <c r="DA112" s="9"/>
-      <c r="DC112">
-        <v>1</v>
-      </c>
-      <c r="DG112" s="9"/>
-      <c r="DM112">
-        <v>1</v>
-      </c>
-      <c r="DU112">
-        <v>1</v>
-      </c>
-      <c r="DX112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="J113">
         <v>1</v>
       </c>
       <c r="S113">
         <v>1</v>
       </c>
-      <c r="BJ113" s="9"/>
-      <c r="BR113" s="9"/>
-      <c r="BS113" s="9"/>
-      <c r="CE113" s="9"/>
-      <c r="CG113" s="9"/>
-      <c r="CH113" s="9"/>
-      <c r="CW113" s="9"/>
-      <c r="DA113" s="9"/>
       <c r="DC113">
         <v>2</v>
       </c>
-      <c r="DG113" s="9"/>
       <c r="DP113">
         <v>2</v>
       </c>
@@ -7426,34 +6474,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="A114" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS114" s="11"/>
-      <c r="BJ114" s="9"/>
-      <c r="BR114" s="9"/>
-      <c r="BS114" s="9"/>
+    <row r="114" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS114" s="10"/>
       <c r="CA114">
         <v>1</v>
       </c>
-      <c r="CE114" s="9"/>
-      <c r="CG114" s="9"/>
-      <c r="CH114" s="9"/>
-      <c r="CW114" s="9">
-        <v>1</v>
-      </c>
-      <c r="DA114" s="9"/>
-      <c r="DG114" s="9"/>
+      <c r="CW114">
+        <v>1</v>
+      </c>
       <c r="DR114">
         <v>1</v>
       </c>
@@ -7464,31 +6504,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C115" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D115" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="BI115">
         <v>1</v>
       </c>
-      <c r="BJ115" s="9"/>
       <c r="BM115">
         <v>1</v>
       </c>
       <c r="BP115">
         <v>3</v>
       </c>
-      <c r="BR115" s="9"/>
-      <c r="BS115" s="9"/>
       <c r="BU115">
         <v>1</v>
       </c>
@@ -7498,9 +6535,6 @@
       <c r="CD115">
         <v>1</v>
       </c>
-      <c r="CE115" s="9"/>
-      <c r="CG115" s="9"/>
-      <c r="CH115" s="9"/>
       <c r="CJ115">
         <v>1</v>
       </c>
@@ -7510,76 +6544,56 @@
       <c r="CU115">
         <v>1</v>
       </c>
-      <c r="CW115" s="9"/>
       <c r="CY115">
         <v>1</v>
       </c>
-      <c r="DA115" s="9"/>
       <c r="DC115">
         <v>1</v>
       </c>
       <c r="DD115">
         <v>2</v>
       </c>
-      <c r="DG115" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="A116" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS116" s="11"/>
-      <c r="BJ116" s="9"/>
-      <c r="BR116" s="9"/>
-      <c r="BS116" s="9"/>
-      <c r="CE116" s="9"/>
-      <c r="CG116" s="9"/>
-      <c r="CH116" s="9"/>
-      <c r="CW116" s="9"/>
-      <c r="DA116" s="9"/>
-      <c r="DG116" s="9"/>
+      <c r="DG115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS116" s="10"/>
       <c r="DS116">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ117" s="9"/>
-      <c r="BR117" s="9"/>
-      <c r="BS117" s="9"/>
-      <c r="CE117" s="9"/>
-      <c r="CG117" s="9"/>
-      <c r="CH117" s="9"/>
+        <v>366</v>
+      </c>
       <c r="CU117">
         <v>1</v>
       </c>
       <c r="CV117">
         <v>1</v>
       </c>
-      <c r="CW117" s="9"/>
-      <c r="DA117" s="9"/>
-      <c r="DG117" s="9"/>
       <c r="DN117">
         <v>1</v>
       </c>
@@ -7587,127 +6601,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="A118" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>373</v>
+    <row r="118" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>366</v>
       </c>
       <c r="S118">
         <v>1</v>
       </c>
-      <c r="AS118" s="11"/>
-      <c r="BJ118" s="9"/>
-      <c r="BR118" s="9"/>
-      <c r="BS118" s="9"/>
+      <c r="AS118" s="10"/>
       <c r="BT118">
         <v>1</v>
       </c>
-      <c r="CE118" s="9"/>
-      <c r="CG118" s="9"/>
-      <c r="CH118" s="9"/>
-      <c r="CW118" s="9"/>
       <c r="CY118">
         <v>1</v>
       </c>
       <c r="CZ118">
         <v>1</v>
       </c>
-      <c r="DA118" s="9"/>
       <c r="DF118">
         <v>1</v>
       </c>
-      <c r="DG118" s="9"/>
-    </row>
-    <row r="119" spans="1:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ119" s="9"/>
-      <c r="BR119" s="9"/>
-      <c r="BS119" s="9"/>
-      <c r="CE119" s="9"/>
-      <c r="CG119" s="9"/>
-      <c r="CH119" s="9">
+        <v>366</v>
+      </c>
+      <c r="CH119">
         <v>1</v>
       </c>
       <c r="CI119">
         <v>2</v>
       </c>
-      <c r="CW119" s="9"/>
-      <c r="DA119" s="9"/>
-      <c r="DG119" s="9"/>
-    </row>
-    <row r="120" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="A120" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS120" s="11"/>
-      <c r="BJ120" s="9"/>
-      <c r="BR120" s="9"/>
-      <c r="BS120" s="9"/>
-      <c r="CE120" s="9"/>
-      <c r="CG120" s="9"/>
-      <c r="CH120" s="9"/>
+    </row>
+    <row r="120" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS120" s="10"/>
       <c r="CV120">
         <v>1</v>
       </c>
-      <c r="CW120" s="9"/>
-      <c r="DA120" s="9"/>
-      <c r="DG120" s="9"/>
       <c r="DV120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ121" s="9"/>
-      <c r="BR121" s="9"/>
-      <c r="BS121" s="9"/>
-      <c r="CE121" s="9"/>
-      <c r="CG121" s="9"/>
-      <c r="CH121" s="9">
-        <v>1</v>
-      </c>
-      <c r="CW121" s="9"/>
-      <c r="DA121" s="9"/>
-      <c r="DG121" s="9"/>
+        <v>366</v>
+      </c>
+      <c r="CH121">
+        <v>1</v>
+      </c>
       <c r="DN121">
         <v>1</v>
       </c>
@@ -7715,604 +6695,419 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="A122" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B122" s="10" t="s">
+    <row r="122" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="BK122">
+        <v>2</v>
+      </c>
+      <c r="BQ122">
+        <v>3</v>
+      </c>
+      <c r="BR122">
+        <v>3</v>
+      </c>
+      <c r="BS122">
+        <v>4</v>
+      </c>
+      <c r="BT122">
+        <v>1</v>
+      </c>
+      <c r="BU122">
+        <v>2</v>
+      </c>
+      <c r="BW122">
+        <v>4</v>
+      </c>
+      <c r="BX122">
+        <v>2</v>
+      </c>
+      <c r="BY122">
+        <v>2</v>
+      </c>
+      <c r="CA122">
+        <v>1</v>
+      </c>
+      <c r="CB122">
+        <v>4</v>
+      </c>
+      <c r="CF122">
+        <v>1</v>
+      </c>
+      <c r="CJ122">
+        <v>1</v>
+      </c>
+      <c r="CK122">
+        <v>1</v>
+      </c>
+      <c r="CS122">
+        <v>1</v>
+      </c>
+      <c r="CU122">
+        <v>1</v>
+      </c>
+      <c r="DR122">
+        <v>2</v>
+      </c>
+      <c r="DU122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="S122">
-        <v>1</v>
-      </c>
-      <c r="AS122" s="11"/>
-      <c r="BJ122" s="9"/>
-      <c r="BR122" s="9"/>
-      <c r="BS122" s="9"/>
-      <c r="CE122" s="9"/>
-      <c r="CG122" s="9"/>
-      <c r="CH122" s="9"/>
-      <c r="CW122" s="9"/>
-      <c r="DA122" s="9"/>
-      <c r="DG122" s="9"/>
-    </row>
-    <row r="123" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
+      <c r="C123" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="AM123">
+        <v>1</v>
+      </c>
+      <c r="AO123">
+        <v>1</v>
+      </c>
+      <c r="AS123" s="10"/>
+      <c r="CF123">
+        <v>1</v>
+      </c>
+      <c r="DI123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="AF125">
+        <v>1</v>
+      </c>
+      <c r="AQ125">
+        <v>1</v>
+      </c>
+      <c r="AS125" s="10"/>
+    </row>
+    <row r="126" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="AS127" s="10"/>
+    </row>
+    <row r="128" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="DV128">
+        <v>1</v>
+      </c>
+      <c r="DX128">
+        <v>1</v>
+      </c>
+      <c r="DY128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS129" s="10"/>
+      <c r="DV129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ123" s="9"/>
-      <c r="BK123">
-        <v>2</v>
-      </c>
-      <c r="BQ123">
+      <c r="B130" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="CK130">
+        <v>1</v>
+      </c>
+      <c r="CL130">
+        <v>1</v>
+      </c>
+      <c r="DR130">
+        <v>2</v>
+      </c>
+      <c r="DX130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="S131">
+        <v>4</v>
+      </c>
+      <c r="AS131" s="10"/>
+      <c r="CH131">
         <v>3</v>
       </c>
-      <c r="BR123" s="9">
-        <v>3</v>
-      </c>
-      <c r="BS123" s="9">
-        <v>4</v>
-      </c>
-      <c r="BT123">
-        <v>1</v>
-      </c>
-      <c r="BU123">
-        <v>2</v>
-      </c>
-      <c r="BW123">
-        <v>4</v>
-      </c>
-      <c r="BX123">
-        <v>2</v>
-      </c>
-      <c r="BY123">
-        <v>2</v>
-      </c>
-      <c r="CA123">
-        <v>1</v>
-      </c>
-      <c r="CB123">
-        <v>4</v>
-      </c>
-      <c r="CE123" s="9"/>
-      <c r="CF123">
-        <v>1</v>
-      </c>
-      <c r="CG123" s="9"/>
-      <c r="CH123" s="9"/>
-      <c r="CJ123">
-        <v>1</v>
-      </c>
-      <c r="CK123">
-        <v>1</v>
-      </c>
-      <c r="CS123">
-        <v>1</v>
-      </c>
-      <c r="CU123">
-        <v>1</v>
-      </c>
-      <c r="CW123" s="9"/>
-      <c r="DA123" s="9"/>
-      <c r="DG123" s="9"/>
-      <c r="DR123">
-        <v>2</v>
-      </c>
-      <c r="DU123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="A124" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL124">
-        <v>1</v>
-      </c>
-      <c r="AM124">
-        <v>1</v>
-      </c>
-      <c r="AO124">
-        <v>1</v>
-      </c>
-      <c r="AS124" s="11"/>
-      <c r="BJ124" s="9"/>
-      <c r="BR124" s="9"/>
-      <c r="BS124" s="9"/>
-      <c r="CE124" s="9"/>
-      <c r="CF124">
-        <v>1</v>
-      </c>
-      <c r="CG124" s="9"/>
-      <c r="CH124" s="9"/>
-      <c r="CW124" s="9"/>
-      <c r="DA124" s="9"/>
-      <c r="DG124" s="9"/>
-      <c r="DI124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="A125" s="8" t="s">
+      <c r="CJ131">
+        <v>1</v>
+      </c>
+      <c r="DK131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE125">
-        <v>1</v>
-      </c>
-      <c r="BJ125" s="9"/>
-      <c r="BR125" s="9"/>
-      <c r="BS125" s="9"/>
-      <c r="CE125" s="9"/>
-      <c r="CG125" s="9"/>
-      <c r="CH125" s="9"/>
-      <c r="CW125" s="9"/>
-      <c r="DA125" s="9"/>
-      <c r="DG125" s="9"/>
-    </row>
-    <row r="126" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
+      <c r="B132" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C126" s="10" t="s">
+      <c r="B133" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AS133" s="10"/>
+    </row>
+    <row r="134" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D126" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="AF126">
-        <v>1</v>
-      </c>
-      <c r="AQ126">
-        <v>1</v>
-      </c>
-      <c r="AS126" s="11"/>
-      <c r="BJ126" s="9"/>
-      <c r="BR126" s="9"/>
-      <c r="BS126" s="9"/>
-      <c r="CE126" s="9"/>
-      <c r="CG126" s="9"/>
-      <c r="CH126" s="9"/>
-      <c r="CW126" s="9"/>
-      <c r="DA126" s="9"/>
-      <c r="DG126" s="9"/>
-    </row>
-    <row r="127" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C127" s="8" t="s">
+      <c r="AL134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D135" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D127" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J127">
-        <v>1</v>
-      </c>
-      <c r="BJ127" s="9"/>
-      <c r="BR127" s="9"/>
-      <c r="BS127" s="9"/>
-      <c r="CE127" s="9"/>
-      <c r="CG127" s="9"/>
-      <c r="CH127" s="9"/>
-      <c r="CW127" s="9"/>
-      <c r="DA127" s="9"/>
-      <c r="DG127" s="9"/>
-    </row>
-    <row r="128" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="A128" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B128" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="C128" s="18" t="s">
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="Y135">
+        <v>1</v>
+      </c>
+      <c r="AS135" s="10"/>
+    </row>
+    <row r="136" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C136" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="D128" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="M128">
-        <v>2</v>
-      </c>
-      <c r="AS128" s="11"/>
-      <c r="BJ128" s="9"/>
-      <c r="BR128" s="9"/>
-      <c r="BS128" s="9"/>
-      <c r="CE128" s="9"/>
-      <c r="CG128" s="9"/>
-      <c r="CH128" s="9"/>
-      <c r="CW128" s="9"/>
-      <c r="DA128" s="9"/>
-      <c r="DG128" s="9"/>
-    </row>
-    <row r="129" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C129" s="8" t="s">
+      <c r="D136" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX136">
+        <v>1</v>
+      </c>
+      <c r="DJ136">
+        <v>2</v>
+      </c>
+      <c r="DK136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C137" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ129" s="9"/>
-      <c r="BR129" s="9"/>
-      <c r="BS129" s="9"/>
-      <c r="CE129" s="9"/>
-      <c r="CG129" s="9"/>
-      <c r="CH129" s="9"/>
-      <c r="CW129" s="9"/>
-      <c r="DA129" s="9"/>
-      <c r="DG129" s="9"/>
-      <c r="DV129">
-        <v>1</v>
-      </c>
-      <c r="DX129">
-        <v>1</v>
-      </c>
-      <c r="DY129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A130" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS130" s="11"/>
-      <c r="BJ130" s="9"/>
-      <c r="BR130" s="9"/>
-      <c r="BS130" s="9"/>
-      <c r="CE130" s="9"/>
-      <c r="CG130" s="9"/>
-      <c r="CH130" s="9"/>
-      <c r="CW130" s="9"/>
-      <c r="DA130" s="9"/>
-      <c r="DG130" s="9"/>
-      <c r="DV130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ131" s="9"/>
-      <c r="BR131" s="9"/>
-      <c r="BS131" s="9"/>
-      <c r="CE131" s="9"/>
-      <c r="CG131" s="9"/>
-      <c r="CH131" s="9"/>
-      <c r="CK131">
-        <v>1</v>
-      </c>
-      <c r="CL131">
-        <v>1</v>
-      </c>
-      <c r="CW131" s="9"/>
-      <c r="DA131" s="9"/>
-      <c r="DG131" s="9"/>
-      <c r="DR131">
-        <v>2</v>
-      </c>
-      <c r="DX131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A132" s="10" t="s">
+      <c r="D137" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+      <c r="AS137" s="10"/>
+    </row>
+    <row r="138" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="S132">
-        <v>4</v>
-      </c>
-      <c r="AS132" s="11"/>
-      <c r="BJ132" s="9"/>
-      <c r="BR132" s="9"/>
-      <c r="BS132" s="9"/>
-      <c r="CE132" s="9"/>
-      <c r="CG132" s="9"/>
-      <c r="CH132" s="9">
-        <v>3</v>
-      </c>
-      <c r="CJ132">
-        <v>1</v>
-      </c>
-      <c r="CW132" s="9"/>
-      <c r="DA132" s="9"/>
-      <c r="DG132" s="9"/>
-      <c r="DK132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A133" s="8" t="s">
+      <c r="B138" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="K133">
-        <v>1</v>
-      </c>
-      <c r="BJ133" s="9"/>
-      <c r="BR133" s="9"/>
-      <c r="BS133" s="9"/>
-      <c r="CE133" s="9"/>
-      <c r="CG133" s="9"/>
-      <c r="CH133" s="9"/>
-      <c r="CW133" s="9"/>
-      <c r="DA133" s="9"/>
-      <c r="DG133" s="9"/>
-    </row>
-    <row r="134" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A134" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="C134" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="D134" s="18" t="s">
+      <c r="B139" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D139" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="AS134" s="11"/>
-      <c r="BJ134" s="9"/>
-      <c r="BR134" s="9"/>
-      <c r="BS134" s="9"/>
-      <c r="CE134" s="9"/>
-      <c r="CG134" s="9"/>
-      <c r="CH134" s="9"/>
-      <c r="CW134" s="9"/>
-      <c r="DA134" s="9"/>
-      <c r="DG134" s="9"/>
-    </row>
-    <row r="135" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A135" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AL135">
-        <v>1</v>
-      </c>
-      <c r="BJ135" s="9"/>
-      <c r="BR135" s="9"/>
-      <c r="BS135" s="9"/>
-      <c r="CE135" s="9"/>
-      <c r="CG135" s="9"/>
-      <c r="CH135" s="9"/>
-      <c r="CW135" s="9"/>
-      <c r="DA135" s="9"/>
-      <c r="DG135" s="9"/>
-    </row>
-    <row r="136" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A136" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="J136">
-        <v>1</v>
-      </c>
-      <c r="Y136">
-        <v>1</v>
-      </c>
-      <c r="AS136" s="11"/>
-      <c r="BJ136" s="9"/>
-      <c r="BR136" s="9"/>
-      <c r="BS136" s="9"/>
-      <c r="CE136" s="9"/>
-      <c r="CG136" s="9"/>
-      <c r="CH136" s="9"/>
-      <c r="CW136" s="9"/>
-      <c r="DA136" s="9"/>
-      <c r="DG136" s="9"/>
-    </row>
-    <row r="137" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A137" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="AX137">
-        <v>1</v>
-      </c>
-      <c r="BJ137" s="9"/>
-      <c r="BR137" s="9"/>
-      <c r="BS137" s="9"/>
-      <c r="CE137" s="9"/>
-      <c r="CG137" s="9"/>
-      <c r="CH137" s="9"/>
-      <c r="CW137" s="9"/>
-      <c r="DA137" s="9"/>
-      <c r="DG137" s="9"/>
-      <c r="DJ137">
-        <v>2</v>
-      </c>
-      <c r="DK137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A138" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q138">
-        <v>1</v>
-      </c>
-      <c r="R138">
-        <v>1</v>
-      </c>
-      <c r="AS138" s="11"/>
-      <c r="BJ138" s="9"/>
-      <c r="BR138" s="9"/>
-      <c r="BS138" s="9"/>
-      <c r="CE138" s="9"/>
-      <c r="CG138" s="9"/>
-      <c r="CH138" s="9"/>
-      <c r="CW138" s="9"/>
-      <c r="DA138" s="9"/>
-      <c r="DG138" s="9"/>
-    </row>
-    <row r="139" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A139" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="BJ139" s="9"/>
-      <c r="BR139" s="9"/>
-      <c r="BS139" s="9"/>
-      <c r="CE139" s="9"/>
-      <c r="CG139" s="9"/>
-      <c r="CH139" s="9"/>
-      <c r="CW139" s="9"/>
-      <c r="DA139" s="9"/>
-      <c r="DG139" s="9"/>
-    </row>
-    <row r="140" spans="1:129" x14ac:dyDescent="0.3">
-      <c r="A140" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS140" s="11"/>
-      <c r="BJ140" s="9">
-        <v>1</v>
-      </c>
-      <c r="BR140" s="9"/>
-      <c r="BS140" s="9"/>
-      <c r="CE140" s="9"/>
-      <c r="CG140" s="9"/>
-      <c r="CH140" s="9"/>
-      <c r="CW140" s="9"/>
-      <c r="DA140" s="9"/>
-      <c r="DG140" s="9"/>
+      <c r="AS139" s="10"/>
+      <c r="BJ139">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Data/data_sour_rot.xlsx
+++ b/Data/data_sour_rot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seb\Desktop\article communauté dernière version\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80821784\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EF4E16F-B3D6-4338-A06F-851797690BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB6EEBB-3319-42A9-85A1-5EC68D1651C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -384,9 +384,6 @@
     <t xml:space="preserve">Chaetomium </t>
   </si>
   <si>
-    <t>Cladospiorium</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cladosporium </t>
   </si>
   <si>
@@ -1172,6 +1169,9 @@
   </si>
   <si>
     <t>Pichia kurdriavzevii</t>
+  </si>
+  <si>
+    <t>Cladosporium</t>
   </si>
 </sst>
 </file>
@@ -2571,7 +2571,7 @@
   <dimension ref="A1:DY139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2584,7 +2584,7 @@
   <sheetData>
     <row r="1" spans="1:129" x14ac:dyDescent="0.25">
       <c r="E1" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
@@ -2626,7 +2626,7 @@
       <c r="AQ1" s="18"/>
       <c r="AR1" s="18"/>
       <c r="AS1" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AT1" s="18"/>
       <c r="AU1" s="18"/>
@@ -2695,7 +2695,7 @@
       <c r="DF1" s="18"/>
       <c r="DG1" s="18"/>
       <c r="DH1" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DI1" s="18"/>
       <c r="DJ1" s="18"/>
@@ -2720,10 +2720,10 @@
         <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>109</v>
@@ -3050,72 +3050,72 @@
         <v>106</v>
       </c>
       <c r="DH2" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="DI2" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="DI2" s="7" t="s">
+      <c r="DJ2" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="DJ2" s="7" t="s">
+      <c r="DK2" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="DK2" s="7" t="s">
+      <c r="DL2" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="DL2" s="7" t="s">
+      <c r="DM2" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="DM2" s="7" t="s">
+      <c r="DN2" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="DN2" s="12" t="s">
+      <c r="DO2" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="DO2" s="12" t="s">
+      <c r="DP2" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="DP2" s="12" t="s">
+      <c r="DQ2" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="DQ2" s="12" t="s">
+      <c r="DR2" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="DR2" s="12" t="s">
+      <c r="DS2" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="DS2" s="13" t="s">
+      <c r="DT2" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="DT2" s="12" t="s">
+      <c r="DU2" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="DU2" s="12" t="s">
+      <c r="DV2" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="DV2" s="12" t="s">
+      <c r="DW2" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="DW2" s="12" t="s">
+      <c r="DX2" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="DX2" s="12" t="s">
+      <c r="DY2" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="DY2" s="13" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -3258,16 +3258,16 @@
     </row>
     <row r="4" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -3276,30 +3276,30 @@
     </row>
     <row r="5" spans="1:129" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:129" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -3308,16 +3308,16 @@
     </row>
     <row r="7" spans="1:129" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="AZ7">
         <v>1</v>
@@ -3328,16 +3328,16 @@
     </row>
     <row r="8" spans="1:129" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="AS8" s="10"/>
       <c r="BH8">
@@ -3346,16 +3346,16 @@
     </row>
     <row r="9" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -3441,45 +3441,45 @@
     </row>
     <row r="10" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="AS10" s="10"/>
     </row>
     <row r="11" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="AS12" s="10"/>
       <c r="AU12">
@@ -3521,16 +3521,16 @@
     </row>
     <row r="13" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AW13">
         <v>5</v>
@@ -3601,16 +3601,16 @@
     </row>
     <row r="14" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS14" s="10"/>
       <c r="CJ14">
@@ -3619,16 +3619,16 @@
     </row>
     <row r="15" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="AW15">
         <v>2</v>
@@ -3651,16 +3651,16 @@
     </row>
     <row r="16" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="AS16" s="10"/>
       <c r="BM16">
@@ -3672,16 +3672,16 @@
     </row>
     <row r="17" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="DN17">
         <v>1</v>
@@ -3689,16 +3689,16 @@
     </row>
     <row r="18" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>119</v>
+        <v>374</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -3749,16 +3749,16 @@
     </row>
     <row r="19" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="AK19">
         <v>1</v>
@@ -3766,16 +3766,16 @@
     </row>
     <row r="20" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="AP20">
         <v>1</v>
@@ -3790,30 +3790,30 @@
     </row>
     <row r="21" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE22">
         <v>1</v>
@@ -3831,16 +3831,16 @@
     </row>
     <row r="23" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3848,60 +3848,60 @@
     </row>
     <row r="24" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS24" s="10"/>
     </row>
     <row r="25" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AS26" s="10"/>
     </row>
     <row r="27" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="DY27">
         <v>1</v>
@@ -3909,16 +3909,16 @@
     </row>
     <row r="28" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X28">
         <v>1</v>
@@ -3930,16 +3930,16 @@
     </row>
     <row r="29" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -3959,16 +3959,16 @@
     </row>
     <row r="30" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C30" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>360</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>361</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -4010,16 +4010,16 @@
     </row>
     <row r="31" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="BV31">
         <v>1</v>
@@ -4027,16 +4027,16 @@
     </row>
     <row r="32" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -4045,16 +4045,16 @@
     </row>
     <row r="33" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -4062,16 +4062,16 @@
     </row>
     <row r="34" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS34" s="10"/>
       <c r="CO34">
@@ -4092,16 +4092,16 @@
     </row>
     <row r="35" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="DB35">
         <v>1</v>
@@ -4112,16 +4112,16 @@
     </row>
     <row r="36" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -4133,16 +4133,16 @@
     </row>
     <row r="37" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="DL37">
         <v>5</v>
@@ -4156,16 +4156,16 @@
     </row>
     <row r="38" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS38" s="10"/>
       <c r="CJ38">
@@ -4180,16 +4180,16 @@
     </row>
     <row r="39" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BM39">
         <v>2</v>
@@ -4221,16 +4221,16 @@
     </row>
     <row r="40" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS40" s="10"/>
       <c r="DO40">
@@ -4239,16 +4239,16 @@
     </row>
     <row r="41" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -4355,16 +4355,16 @@
     </row>
     <row r="42" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS42" s="10"/>
       <c r="BM42">
@@ -4382,16 +4382,16 @@
     </row>
     <row r="43" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X43">
         <v>1</v>
@@ -4423,16 +4423,16 @@
     </row>
     <row r="44" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS44" s="10"/>
       <c r="BB44">
@@ -4447,16 +4447,16 @@
     </row>
     <row r="45" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AU45">
         <v>1</v>
@@ -4476,16 +4476,16 @@
     </row>
     <row r="46" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -4509,16 +4509,16 @@
     </row>
     <row r="47" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CF47">
         <v>2</v>
@@ -4541,16 +4541,16 @@
     </row>
     <row r="48" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS48" s="10"/>
       <c r="DD48">
@@ -4559,16 +4559,16 @@
     </row>
     <row r="49" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CI49">
         <v>1</v>
@@ -4576,16 +4576,16 @@
     </row>
     <row r="50" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -4597,16 +4597,16 @@
     </row>
     <row r="51" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -4647,16 +4647,16 @@
     </row>
     <row r="52" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -4779,16 +4779,16 @@
     </row>
     <row r="53" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI53">
         <v>1</v>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="54" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -4901,16 +4901,16 @@
     </row>
     <row r="55" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R55">
         <v>1</v>
@@ -4945,16 +4945,16 @@
     </row>
     <row r="56" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS56" s="10"/>
       <c r="DY56">
@@ -4963,16 +4963,16 @@
     </row>
     <row r="57" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -5106,31 +5106,31 @@
     </row>
     <row r="58" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS58" s="10"/>
     </row>
     <row r="59" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5147,16 +5147,16 @@
     </row>
     <row r="60" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AS60" s="10"/>
       <c r="DK60">
@@ -5165,16 +5165,16 @@
     </row>
     <row r="61" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="D61" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -5182,16 +5182,16 @@
     </row>
     <row r="62" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="D62" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -5206,16 +5206,16 @@
     </row>
     <row r="63" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="D63" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R63">
         <v>1</v>
@@ -5226,16 +5226,16 @@
     </row>
     <row r="64" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B64" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="D64" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS64" s="10"/>
       <c r="CG64">
@@ -5247,16 +5247,16 @@
     </row>
     <row r="65" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="D65" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AU65">
         <v>1</v>
@@ -5264,16 +5264,16 @@
     </row>
     <row r="66" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B66" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="D66" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -5294,16 +5294,16 @@
     </row>
     <row r="67" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="D67" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AB67">
         <v>2</v>
@@ -5311,16 +5311,16 @@
     </row>
     <row r="68" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="D68" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -5347,16 +5347,16 @@
     </row>
     <row r="69" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="D69" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="X69">
         <v>1</v>
@@ -5367,16 +5367,16 @@
     </row>
     <row r="70" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B70" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="D70" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AO70">
         <v>1</v>
@@ -5385,16 +5385,16 @@
     </row>
     <row r="71" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="D71" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CT71">
         <v>1</v>
@@ -5405,16 +5405,16 @@
     </row>
     <row r="72" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B72" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="D72" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -5432,16 +5432,16 @@
     </row>
     <row r="73" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="CS73">
         <v>1</v>
@@ -5455,16 +5455,16 @@
     </row>
     <row r="74" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="AS74" s="10"/>
       <c r="DS74">
@@ -5473,16 +5473,16 @@
     </row>
     <row r="75" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="BU75">
         <v>1</v>
@@ -5496,60 +5496,60 @@
     </row>
     <row r="76" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS76" s="10"/>
     </row>
     <row r="77" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AS78" s="10"/>
     </row>
     <row r="79" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="DI79">
         <v>1</v>
@@ -5557,16 +5557,16 @@
     </row>
     <row r="80" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -5590,16 +5590,16 @@
     </row>
     <row r="81" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5607,16 +5607,16 @@
     </row>
     <row r="82" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AS82" s="10"/>
       <c r="DK82">
@@ -5625,16 +5625,16 @@
     </row>
     <row r="83" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CQ83">
         <v>2</v>
@@ -5666,16 +5666,16 @@
     </row>
     <row r="84" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Z84">
         <v>1</v>
@@ -5684,16 +5684,16 @@
     </row>
     <row r="85" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B85" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>354</v>
-      </c>
       <c r="D85" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DT85">
         <v>1</v>
@@ -5701,16 +5701,16 @@
     </row>
     <row r="86" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -5740,16 +5740,16 @@
     </row>
     <row r="87" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="DC87">
         <v>1</v>
@@ -5757,16 +5757,16 @@
     </row>
     <row r="88" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS88" s="10"/>
       <c r="CJ88">
@@ -5787,16 +5787,16 @@
     </row>
     <row r="89" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CI89">
         <v>1</v>
@@ -5810,16 +5810,16 @@
     </row>
     <row r="90" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS90" s="10"/>
       <c r="CQ90">
@@ -5828,16 +5828,16 @@
     </row>
     <row r="91" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CT91">
         <v>1</v>
@@ -5845,16 +5845,16 @@
     </row>
     <row r="92" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS92" s="10"/>
       <c r="CC92">
@@ -5863,16 +5863,16 @@
     </row>
     <row r="93" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BN93">
         <v>1</v>
@@ -5889,16 +5889,16 @@
     </row>
     <row r="94" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS94" s="10"/>
       <c r="CI94">
@@ -5913,16 +5913,16 @@
     </row>
     <row r="95" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CA95">
         <v>1</v>
@@ -5936,16 +5936,16 @@
     </row>
     <row r="96" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS96" s="10"/>
       <c r="CW96">
@@ -5957,16 +5957,16 @@
     </row>
     <row r="97" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -6019,16 +6019,16 @@
     </row>
     <row r="98" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS98" s="10"/>
       <c r="CY98">
@@ -6040,16 +6040,16 @@
     </row>
     <row r="99" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="DN99">
         <v>2</v>
@@ -6057,16 +6057,16 @@
     </row>
     <row r="100" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS100" s="10"/>
       <c r="BZ100">
@@ -6078,16 +6078,16 @@
     </row>
     <row r="101" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BQ101">
         <v>1</v>
@@ -6104,16 +6104,16 @@
     </row>
     <row r="102" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS102" s="10"/>
       <c r="BP102">
@@ -6143,16 +6143,16 @@
     </row>
     <row r="103" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CB103">
         <v>1</v>
@@ -6163,16 +6163,16 @@
     </row>
     <row r="104" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S104">
         <v>1</v>
@@ -6226,16 +6226,16 @@
     </row>
     <row r="105" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BS105">
         <v>1</v>
@@ -6243,16 +6243,16 @@
     </row>
     <row r="106" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS106" s="10"/>
       <c r="CE106">
@@ -6261,16 +6261,16 @@
     </row>
     <row r="107" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -6302,16 +6302,16 @@
     </row>
     <row r="108" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS108" s="10"/>
       <c r="DI108">
@@ -6332,16 +6332,16 @@
     </row>
     <row r="109" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -6349,16 +6349,16 @@
     </row>
     <row r="110" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS110" s="10"/>
       <c r="DN110">
@@ -6367,16 +6367,16 @@
     </row>
     <row r="111" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CZ111">
         <v>1</v>
@@ -6387,16 +6387,16 @@
     </row>
     <row r="112" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -6447,16 +6447,16 @@
     </row>
     <row r="113" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C113" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -6476,16 +6476,16 @@
     </row>
     <row r="114" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS114" s="10"/>
       <c r="CA114">
@@ -6506,16 +6506,16 @@
     </row>
     <row r="115" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C115" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="BI115">
         <v>1</v>
@@ -6559,16 +6559,16 @@
     </row>
     <row r="116" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS116" s="10"/>
       <c r="DS116">
@@ -6577,16 +6577,16 @@
     </row>
     <row r="117" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CU117">
         <v>1</v>
@@ -6603,16 +6603,16 @@
     </row>
     <row r="118" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S118">
         <v>1</v>
@@ -6633,16 +6633,16 @@
     </row>
     <row r="119" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CH119">
         <v>1</v>
@@ -6653,16 +6653,16 @@
     </row>
     <row r="120" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS120" s="10"/>
       <c r="CV120">
@@ -6674,16 +6674,16 @@
     </row>
     <row r="121" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CH121">
         <v>1</v>
@@ -6697,16 +6697,16 @@
     </row>
     <row r="122" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BK122">
         <v>2</v>
@@ -6765,16 +6765,16 @@
     </row>
     <row r="123" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL123">
         <v>1</v>
@@ -6795,16 +6795,16 @@
     </row>
     <row r="124" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AE124">
         <v>1</v>
@@ -6812,16 +6812,16 @@
     </row>
     <row r="125" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C125" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6836,16 +6836,16 @@
     </row>
     <row r="126" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C126" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="J126">
         <v>1</v>
@@ -6856,13 +6856,13 @@
         <v>107</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M127">
         <v>2</v>
@@ -6871,16 +6871,16 @@
     </row>
     <row r="128" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="DV128">
         <v>1</v>
@@ -6894,16 +6894,16 @@
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS129" s="10"/>
       <c r="DV129">
@@ -6912,16 +6912,16 @@
     </row>
     <row r="130" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CK130">
         <v>1</v>
@@ -6938,16 +6938,16 @@
     </row>
     <row r="131" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S131">
         <v>4</v>
@@ -6965,16 +6965,16 @@
     </row>
     <row r="132" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K132">
         <v>1</v>
@@ -6982,31 +6982,31 @@
     </row>
     <row r="133" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B133" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C133" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="D133" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="D133" s="15" t="s">
-        <v>359</v>
       </c>
       <c r="AS133" s="10"/>
     </row>
     <row r="134" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C134" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="AL134">
         <v>1</v>
@@ -7014,16 +7014,16 @@
     </row>
     <row r="135" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C135" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D135" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="J135">
         <v>1</v>
@@ -7035,16 +7035,16 @@
     </row>
     <row r="136" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AX136">
         <v>1</v>
@@ -7058,16 +7058,16 @@
     </row>
     <row r="137" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -7079,30 +7079,30 @@
     </row>
     <row r="138" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C138" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS139" s="10"/>
       <c r="BJ139">

--- a/Data/data_sour_rot.xlsx
+++ b/Data/data_sour_rot.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80821784\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB6EEBB-3319-42A9-85A1-5EC68D1651C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028BBA51-D238-4642-8A4F-A2CA22065A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -745,9 +754,6 @@
     <t>Botrytis sp.</t>
   </si>
   <si>
-    <t>Candida californica</t>
-  </si>
-  <si>
     <t>Candida railenensis</t>
   </si>
   <si>
@@ -1172,6 +1178,9 @@
   </si>
   <si>
     <t>Cladosporium</t>
+  </si>
+  <si>
+    <t>Pichia californica</t>
   </si>
 </sst>
 </file>
@@ -2571,7 +2580,7 @@
   <dimension ref="A1:DY139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3521,16 +3530,16 @@
     </row>
     <row r="13" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>232</v>
+        <v>374</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>171</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AW13">
         <v>5</v>
@@ -3601,7 +3610,7 @@
     </row>
     <row r="14" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>131</v>
@@ -3610,7 +3619,7 @@
         <v>171</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS14" s="10"/>
       <c r="CJ14">
@@ -3619,7 +3628,7 @@
     </row>
     <row r="15" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>117</v>
@@ -3651,7 +3660,7 @@
     </row>
     <row r="16" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>117</v>
@@ -3672,7 +3681,7 @@
     </row>
     <row r="17" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>118</v>
@@ -3689,10 +3698,10 @@
     </row>
     <row r="18" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>177</v>
@@ -3749,7 +3758,7 @@
     </row>
     <row r="19" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>119</v>
@@ -3766,7 +3775,7 @@
     </row>
     <row r="20" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>119</v>
@@ -3790,7 +3799,7 @@
     </row>
     <row r="21" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>120</v>
@@ -3804,7 +3813,7 @@
     </row>
     <row r="22" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>121</v>
@@ -3831,7 +3840,7 @@
     </row>
     <row r="23" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>122</v>
@@ -3848,7 +3857,7 @@
     </row>
     <row r="24" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>123</v>
@@ -3863,7 +3872,7 @@
     </row>
     <row r="25" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>124</v>
@@ -3877,7 +3886,7 @@
     </row>
     <row r="26" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>125</v>
@@ -3892,10 +3901,10 @@
     </row>
     <row r="27" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>126</v>
@@ -3909,7 +3918,7 @@
     </row>
     <row r="28" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>127</v>
@@ -3930,7 +3939,7 @@
     </row>
     <row r="29" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>128</v>
@@ -3962,13 +3971,13 @@
         <v>158</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C30" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>359</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>360</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -4010,7 +4019,7 @@
     </row>
     <row r="31" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>129</v>
@@ -4027,7 +4036,7 @@
     </row>
     <row r="32" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>130</v>
@@ -4045,7 +4054,7 @@
     </row>
     <row r="33" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>130</v>
@@ -4062,7 +4071,7 @@
     </row>
     <row r="34" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>132</v>
@@ -4092,7 +4101,7 @@
     </row>
     <row r="35" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>132</v>
@@ -4112,7 +4121,7 @@
     </row>
     <row r="36" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>132</v>
@@ -4133,7 +4142,7 @@
     </row>
     <row r="37" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>132</v>
@@ -4156,7 +4165,7 @@
     </row>
     <row r="38" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>132</v>
@@ -4180,7 +4189,7 @@
     </row>
     <row r="39" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>132</v>
@@ -4221,13 +4230,13 @@
     </row>
     <row r="40" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>172</v>
@@ -4239,13 +4248,13 @@
     </row>
     <row r="41" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>172</v>
@@ -4355,13 +4364,13 @@
     </row>
     <row r="42" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>172</v>
@@ -4382,13 +4391,13 @@
     </row>
     <row r="43" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>172</v>
@@ -4423,13 +4432,13 @@
     </row>
     <row r="44" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>172</v>
@@ -4447,13 +4456,13 @@
     </row>
     <row r="45" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>172</v>
@@ -4476,13 +4485,13 @@
     </row>
     <row r="46" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>172</v>
@@ -4509,13 +4518,13 @@
     </row>
     <row r="47" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>172</v>
@@ -4541,13 +4550,13 @@
     </row>
     <row r="48" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>172</v>
@@ -4559,13 +4568,13 @@
     </row>
     <row r="49" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>172</v>
@@ -4576,13 +4585,13 @@
     </row>
     <row r="50" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>172</v>
@@ -4597,13 +4606,13 @@
     </row>
     <row r="51" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>172</v>
@@ -4647,13 +4656,13 @@
     </row>
     <row r="52" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>172</v>
@@ -4779,13 +4788,13 @@
     </row>
     <row r="53" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>172</v>
@@ -4817,13 +4826,13 @@
     </row>
     <row r="54" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>172</v>
@@ -4901,13 +4910,13 @@
     </row>
     <row r="55" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>172</v>
@@ -4945,13 +4954,13 @@
     </row>
     <row r="56" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>172</v>
@@ -4963,13 +4972,13 @@
     </row>
     <row r="57" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>172</v>
@@ -5106,7 +5115,7 @@
     </row>
     <row r="58" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>134</v>
@@ -5121,7 +5130,7 @@
     </row>
     <row r="59" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>135</v>
@@ -5147,7 +5156,7 @@
     </row>
     <row r="60" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>136</v>
@@ -5165,7 +5174,7 @@
     </row>
     <row r="61" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>137</v>
@@ -5174,7 +5183,7 @@
         <v>138</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -5182,7 +5191,7 @@
     </row>
     <row r="62" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>137</v>
@@ -5191,7 +5200,7 @@
         <v>138</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -5206,7 +5215,7 @@
     </row>
     <row r="63" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>137</v>
@@ -5215,7 +5224,7 @@
         <v>138</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R63">
         <v>1</v>
@@ -5226,7 +5235,7 @@
     </row>
     <row r="64" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>137</v>
@@ -5235,7 +5244,7 @@
         <v>138</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS64" s="10"/>
       <c r="CG64">
@@ -5247,7 +5256,7 @@
     </row>
     <row r="65" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>137</v>
@@ -5256,7 +5265,7 @@
         <v>138</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AU65">
         <v>1</v>
@@ -5264,7 +5273,7 @@
     </row>
     <row r="66" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>137</v>
@@ -5273,7 +5282,7 @@
         <v>138</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -5294,7 +5303,7 @@
     </row>
     <row r="67" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>137</v>
@@ -5303,7 +5312,7 @@
         <v>138</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AB67">
         <v>2</v>
@@ -5311,7 +5320,7 @@
     </row>
     <row r="68" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>137</v>
@@ -5320,7 +5329,7 @@
         <v>138</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -5347,7 +5356,7 @@
     </row>
     <row r="69" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>137</v>
@@ -5356,7 +5365,7 @@
         <v>138</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X69">
         <v>1</v>
@@ -5367,7 +5376,7 @@
     </row>
     <row r="70" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>137</v>
@@ -5376,7 +5385,7 @@
         <v>138</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AO70">
         <v>1</v>
@@ -5385,7 +5394,7 @@
     </row>
     <row r="71" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>137</v>
@@ -5394,7 +5403,7 @@
         <v>138</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CT71">
         <v>1</v>
@@ -5405,7 +5414,7 @@
     </row>
     <row r="72" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B72" s="17" t="s">
         <v>137</v>
@@ -5414,7 +5423,7 @@
         <v>138</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -5432,7 +5441,7 @@
     </row>
     <row r="73" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>139</v>
@@ -5455,7 +5464,7 @@
     </row>
     <row r="74" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>139</v>
@@ -5473,7 +5482,7 @@
     </row>
     <row r="75" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>139</v>
@@ -5496,7 +5505,7 @@
     </row>
     <row r="76" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>140</v>
@@ -5511,7 +5520,7 @@
     </row>
     <row r="77" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>141</v>
@@ -5525,7 +5534,7 @@
     </row>
     <row r="78" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>142</v>
@@ -5534,13 +5543,13 @@
         <v>163</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS78" s="10"/>
     </row>
     <row r="79" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>142</v>
@@ -5549,7 +5558,7 @@
         <v>163</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="DI79">
         <v>1</v>
@@ -5557,7 +5566,7 @@
     </row>
     <row r="80" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>142</v>
@@ -5566,7 +5575,7 @@
         <v>163</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -5590,7 +5599,7 @@
     </row>
     <row r="81" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>142</v>
@@ -5599,7 +5608,7 @@
         <v>163</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5607,7 +5616,7 @@
     </row>
     <row r="82" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>142</v>
@@ -5616,7 +5625,7 @@
         <v>163</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AS82" s="10"/>
       <c r="DK82">
@@ -5625,7 +5634,7 @@
     </row>
     <row r="83" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>142</v>
@@ -5634,7 +5643,7 @@
         <v>163</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CQ83">
         <v>2</v>
@@ -5666,7 +5675,7 @@
     </row>
     <row r="84" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>142</v>
@@ -5675,7 +5684,7 @@
         <v>163</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z84">
         <v>1</v>
@@ -5684,13 +5693,13 @@
     </row>
     <row r="85" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B85" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>353</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>143</v>
@@ -5701,7 +5710,7 @@
     </row>
     <row r="86" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>145</v>
@@ -5710,7 +5719,7 @@
         <v>171</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -5740,7 +5749,7 @@
     </row>
     <row r="87" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>144</v>
@@ -5749,7 +5758,7 @@
         <v>171</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="DC87">
         <v>1</v>
@@ -5757,7 +5766,7 @@
     </row>
     <row r="88" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>144</v>
@@ -5766,7 +5775,7 @@
         <v>171</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS88" s="10"/>
       <c r="CJ88">
@@ -5787,7 +5796,7 @@
     </row>
     <row r="89" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>144</v>
@@ -5796,7 +5805,7 @@
         <v>171</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CI89">
         <v>1</v>
@@ -5810,7 +5819,7 @@
     </row>
     <row r="90" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>144</v>
@@ -5819,7 +5828,7 @@
         <v>171</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS90" s="10"/>
       <c r="CQ90">
@@ -5828,7 +5837,7 @@
     </row>
     <row r="91" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>144</v>
@@ -5837,7 +5846,7 @@
         <v>171</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CT91">
         <v>1</v>
@@ -5845,7 +5854,7 @@
     </row>
     <row r="92" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>144</v>
@@ -5854,7 +5863,7 @@
         <v>171</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS92" s="10"/>
       <c r="CC92">
@@ -5863,7 +5872,7 @@
     </row>
     <row r="93" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>144</v>
@@ -5872,7 +5881,7 @@
         <v>171</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BN93">
         <v>1</v>
@@ -5889,7 +5898,7 @@
     </row>
     <row r="94" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>144</v>
@@ -5898,7 +5907,7 @@
         <v>171</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS94" s="10"/>
       <c r="CI94">
@@ -5913,7 +5922,7 @@
     </row>
     <row r="95" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>144</v>
@@ -5922,7 +5931,7 @@
         <v>171</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CA95">
         <v>1</v>
@@ -5936,7 +5945,7 @@
     </row>
     <row r="96" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>144</v>
@@ -5945,7 +5954,7 @@
         <v>171</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS96" s="10"/>
       <c r="CW96">
@@ -5957,7 +5966,7 @@
     </row>
     <row r="97" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>144</v>
@@ -5966,7 +5975,7 @@
         <v>171</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -6019,7 +6028,7 @@
     </row>
     <row r="98" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>144</v>
@@ -6028,7 +6037,7 @@
         <v>171</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS98" s="10"/>
       <c r="CY98">
@@ -6040,7 +6049,7 @@
     </row>
     <row r="99" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>144</v>
@@ -6049,7 +6058,7 @@
         <v>171</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="DN99">
         <v>2</v>
@@ -6057,7 +6066,7 @@
     </row>
     <row r="100" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>144</v>
@@ -6066,7 +6075,7 @@
         <v>171</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS100" s="10"/>
       <c r="BZ100">
@@ -6078,7 +6087,7 @@
     </row>
     <row r="101" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>144</v>
@@ -6087,7 +6096,7 @@
         <v>171</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BQ101">
         <v>1</v>
@@ -6104,7 +6113,7 @@
     </row>
     <row r="102" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>144</v>
@@ -6113,7 +6122,7 @@
         <v>171</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS102" s="10"/>
       <c r="BP102">
@@ -6143,7 +6152,7 @@
     </row>
     <row r="103" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>144</v>
@@ -6152,7 +6161,7 @@
         <v>171</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CB103">
         <v>1</v>
@@ -6163,7 +6172,7 @@
     </row>
     <row r="104" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>144</v>
@@ -6172,7 +6181,7 @@
         <v>171</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S104">
         <v>1</v>
@@ -6226,7 +6235,7 @@
     </row>
     <row r="105" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>144</v>
@@ -6235,7 +6244,7 @@
         <v>171</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BS105">
         <v>1</v>
@@ -6243,7 +6252,7 @@
     </row>
     <row r="106" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>144</v>
@@ -6252,7 +6261,7 @@
         <v>171</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS106" s="10"/>
       <c r="CE106">
@@ -6261,7 +6270,7 @@
     </row>
     <row r="107" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>144</v>
@@ -6270,7 +6279,7 @@
         <v>171</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -6302,7 +6311,7 @@
     </row>
     <row r="108" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>144</v>
@@ -6311,7 +6320,7 @@
         <v>171</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS108" s="10"/>
       <c r="DI108">
@@ -6332,7 +6341,7 @@
     </row>
     <row r="109" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>144</v>
@@ -6341,7 +6350,7 @@
         <v>171</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -6349,7 +6358,7 @@
     </row>
     <row r="110" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>144</v>
@@ -6358,7 +6367,7 @@
         <v>171</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS110" s="10"/>
       <c r="DN110">
@@ -6367,7 +6376,7 @@
     </row>
     <row r="111" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>144</v>
@@ -6376,7 +6385,7 @@
         <v>171</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CZ111">
         <v>1</v>
@@ -6387,7 +6396,7 @@
     </row>
     <row r="112" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>144</v>
@@ -6396,7 +6405,7 @@
         <v>171</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -6447,7 +6456,7 @@
     </row>
     <row r="113" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>144</v>
@@ -6476,7 +6485,7 @@
     </row>
     <row r="114" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>144</v>
@@ -6485,7 +6494,7 @@
         <v>171</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS114" s="10"/>
       <c r="CA114">
@@ -6506,7 +6515,7 @@
     </row>
     <row r="115" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>144</v>
@@ -6559,7 +6568,7 @@
     </row>
     <row r="116" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>144</v>
@@ -6568,7 +6577,7 @@
         <v>171</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS116" s="10"/>
       <c r="DS116">
@@ -6577,7 +6586,7 @@
     </row>
     <row r="117" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>144</v>
@@ -6586,7 +6595,7 @@
         <v>171</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CU117">
         <v>1</v>
@@ -6603,7 +6612,7 @@
     </row>
     <row r="118" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>144</v>
@@ -6612,7 +6621,7 @@
         <v>171</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S118">
         <v>1</v>
@@ -6633,7 +6642,7 @@
     </row>
     <row r="119" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>144</v>
@@ -6642,7 +6651,7 @@
         <v>171</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CH119">
         <v>1</v>
@@ -6653,7 +6662,7 @@
     </row>
     <row r="120" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>144</v>
@@ -6662,7 +6671,7 @@
         <v>171</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS120" s="10"/>
       <c r="CV120">
@@ -6674,7 +6683,7 @@
     </row>
     <row r="121" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>144</v>
@@ -6683,7 +6692,7 @@
         <v>171</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CH121">
         <v>1</v>
@@ -6697,7 +6706,7 @@
     </row>
     <row r="122" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>145</v>
@@ -6706,7 +6715,7 @@
         <v>171</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BK122">
         <v>2</v>
@@ -6765,13 +6774,13 @@
     </row>
     <row r="123" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>160</v>
@@ -6795,13 +6804,13 @@
     </row>
     <row r="124" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>160</v>
@@ -6812,7 +6821,7 @@
     </row>
     <row r="125" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>148</v>
@@ -6836,7 +6845,7 @@
     </row>
     <row r="126" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>149</v>
@@ -6856,13 +6865,13 @@
         <v>107</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M127">
         <v>2</v>
@@ -6871,7 +6880,7 @@
     </row>
     <row r="128" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>150</v>
@@ -6880,7 +6889,7 @@
         <v>195</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="DV128">
         <v>1</v>
@@ -6894,7 +6903,7 @@
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>150</v>
@@ -6903,7 +6912,7 @@
         <v>195</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS129" s="10"/>
       <c r="DV129">
@@ -6912,7 +6921,7 @@
     </row>
     <row r="130" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>150</v>
@@ -6921,7 +6930,7 @@
         <v>195</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CK130">
         <v>1</v>
@@ -6938,7 +6947,7 @@
     </row>
     <row r="131" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>150</v>
@@ -6947,7 +6956,7 @@
         <v>195</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S131">
         <v>4</v>
@@ -6965,7 +6974,7 @@
     </row>
     <row r="132" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>151</v>
@@ -6982,22 +6991,22 @@
     </row>
     <row r="133" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B133" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C133" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="D133" s="15" t="s">
         <v>357</v>
-      </c>
-      <c r="D133" s="15" t="s">
-        <v>358</v>
       </c>
       <c r="AS133" s="10"/>
     </row>
     <row r="134" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>152</v>
@@ -7014,7 +7023,7 @@
     </row>
     <row r="135" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>153</v>
@@ -7035,16 +7044,16 @@
     </row>
     <row r="136" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AX136">
         <v>1</v>
@@ -7058,7 +7067,7 @@
     </row>
     <row r="137" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>155</v>
@@ -7067,7 +7076,7 @@
         <v>196</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -7079,7 +7088,7 @@
     </row>
     <row r="138" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>156</v>
@@ -7093,7 +7102,7 @@
     </row>
     <row r="139" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>157</v>
@@ -7102,7 +7111,7 @@
         <v>197</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AS139" s="10"/>
       <c r="BJ139">

--- a/Data/data_sour_rot.xlsx
+++ b/Data/data_sour_rot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80821784\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028BBA51-D238-4642-8A4F-A2CA22065A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15933C-CA33-4309-9768-5CE513958566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -2580,7 +2580,9 @@
   <dimension ref="A1:DY139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A97" sqref="A97"/>
+      <selection pane="topRight" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
